--- a/tools/ICON16x16.xlsx
+++ b/tools/ICON16x16.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Raspberry_Pi_Pico\VSCode\RPi_Pico_WAV_Player\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Raspberry_Pi_Pico\VSCode\RPi_Pico_WAV_Player\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17251027-2B99-44C6-8799-ECBF4E1B401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19E7E8-BC9C-402C-A825-314BE6CC62F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="26445" windowHeight="14430" xr2:uid="{7E682170-0FA3-4D33-A3CA-4458C6F2D2D4}"/>
+    <workbookView xWindow="1050" yWindow="1350" windowWidth="27135" windowHeight="13650" xr2:uid="{7E682170-0FA3-4D33-A3CA-4458C6F2D2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -158,11 +169,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -189,13 +200,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -216,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -362,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F949ED-4E88-4139-A003-24C46D6923AF}">
-  <dimension ref="J12:AI207"/>
+  <dimension ref="J12:AI315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
@@ -4365,20 +4373,20 @@
     </row>
     <row r="139" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J139" s="5"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-      <c r="S139" s="11"/>
-      <c r="T139" s="11"/>
-      <c r="U139" s="11"/>
-      <c r="V139" s="11"/>
-      <c r="W139" s="11"/>
-      <c r="X139" s="11"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
       <c r="Y139" s="6"/>
       <c r="AE139" t="str">
         <f t="shared" ref="AE139:AE153" si="14">DEC2HEX(J139*1+K139*2+L139*4+M139*8+N139*16+O139*32+P139*64+Q139*128, 2)</f>
@@ -4395,32 +4403,32 @@
     </row>
     <row r="140" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J140" s="5"/>
-      <c r="K140" s="11"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="11"/>
-      <c r="N140" s="12">
-        <v>1</v>
-      </c>
-      <c r="O140" s="12">
-        <v>1</v>
-      </c>
-      <c r="P140" s="11"/>
-      <c r="Q140" s="12">
-        <v>1</v>
-      </c>
-      <c r="R140" s="12">
-        <v>1</v>
-      </c>
-      <c r="S140" s="11"/>
-      <c r="T140" s="12">
-        <v>1</v>
-      </c>
-      <c r="U140" s="12">
-        <v>1</v>
-      </c>
-      <c r="V140" s="11"/>
-      <c r="W140" s="11"/>
-      <c r="X140" s="11"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="10">
+        <v>1</v>
+      </c>
+      <c r="O140" s="10">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="10">
+        <v>1</v>
+      </c>
+      <c r="R140" s="10">
+        <v>1</v>
+      </c>
+      <c r="S140" s="1"/>
+      <c r="T140" s="10">
+        <v>1</v>
+      </c>
+      <c r="U140" s="10">
+        <v>1</v>
+      </c>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
       <c r="Y140" s="6"/>
       <c r="AE140" t="str">
         <f t="shared" si="14"/>
@@ -4433,44 +4441,44 @@
     </row>
     <row r="141" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J141" s="5"/>
-      <c r="K141" s="11"/>
-      <c r="L141" s="12">
-        <v>1</v>
-      </c>
-      <c r="M141" s="12">
-        <v>1</v>
-      </c>
-      <c r="N141" s="12">
-        <v>1</v>
-      </c>
-      <c r="O141" s="12">
-        <v>1</v>
-      </c>
-      <c r="P141" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="12">
-        <v>1</v>
-      </c>
-      <c r="R141" s="12">
-        <v>1</v>
-      </c>
-      <c r="S141" s="12">
-        <v>1</v>
-      </c>
-      <c r="T141" s="12">
-        <v>1</v>
-      </c>
-      <c r="U141" s="12">
-        <v>1</v>
-      </c>
-      <c r="V141" s="12">
-        <v>1</v>
-      </c>
-      <c r="W141" s="12">
-        <v>1</v>
-      </c>
-      <c r="X141" s="11"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="10">
+        <v>1</v>
+      </c>
+      <c r="M141" s="10">
+        <v>1</v>
+      </c>
+      <c r="N141" s="10">
+        <v>1</v>
+      </c>
+      <c r="O141" s="10">
+        <v>1</v>
+      </c>
+      <c r="P141" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="10">
+        <v>1</v>
+      </c>
+      <c r="R141" s="10">
+        <v>1</v>
+      </c>
+      <c r="S141" s="10">
+        <v>1</v>
+      </c>
+      <c r="T141" s="10">
+        <v>1</v>
+      </c>
+      <c r="U141" s="10">
+        <v>1</v>
+      </c>
+      <c r="V141" s="10">
+        <v>1</v>
+      </c>
+      <c r="W141" s="10">
+        <v>1</v>
+      </c>
+      <c r="X141" s="1"/>
       <c r="Y141" s="6"/>
       <c r="AE141" t="str">
         <f t="shared" si="14"/>
@@ -4483,36 +4491,36 @@
     </row>
     <row r="142" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J142" s="5"/>
-      <c r="K142" s="11"/>
-      <c r="L142" s="12">
-        <v>1</v>
-      </c>
-      <c r="M142" s="11"/>
-      <c r="N142" s="12">
-        <v>1</v>
-      </c>
-      <c r="O142" s="12">
-        <v>1</v>
-      </c>
-      <c r="P142" s="11"/>
-      <c r="Q142" s="12">
-        <v>1</v>
-      </c>
-      <c r="R142" s="12">
-        <v>1</v>
-      </c>
-      <c r="S142" s="11"/>
-      <c r="T142" s="12">
-        <v>1</v>
-      </c>
-      <c r="U142" s="12">
-        <v>1</v>
-      </c>
-      <c r="V142" s="11"/>
-      <c r="W142" s="12">
-        <v>1</v>
-      </c>
-      <c r="X142" s="11"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="10">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1"/>
+      <c r="N142" s="10">
+        <v>1</v>
+      </c>
+      <c r="O142" s="10">
+        <v>1</v>
+      </c>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="10">
+        <v>1</v>
+      </c>
+      <c r="R142" s="10">
+        <v>1</v>
+      </c>
+      <c r="S142" s="1"/>
+      <c r="T142" s="10">
+        <v>1</v>
+      </c>
+      <c r="U142" s="10">
+        <v>1</v>
+      </c>
+      <c r="V142" s="1"/>
+      <c r="W142" s="10">
+        <v>1</v>
+      </c>
+      <c r="X142" s="1"/>
       <c r="Y142" s="6"/>
       <c r="AE142" t="str">
         <f t="shared" si="14"/>
@@ -4525,24 +4533,24 @@
     </row>
     <row r="143" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J143" s="5"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="12">
-        <v>1</v>
-      </c>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11"/>
-      <c r="U143" s="11"/>
-      <c r="V143" s="11"/>
-      <c r="W143" s="12">
-        <v>1</v>
-      </c>
-      <c r="X143" s="11"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="10">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="10">
+        <v>1</v>
+      </c>
+      <c r="X143" s="1"/>
       <c r="Y143" s="6"/>
       <c r="AE143" t="str">
         <f t="shared" si="14"/>
@@ -4555,28 +4563,28 @@
     </row>
     <row r="144" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J144" s="5"/>
-      <c r="K144" s="11"/>
-      <c r="L144" s="12">
-        <v>1</v>
-      </c>
-      <c r="M144" s="11"/>
-      <c r="N144" s="11"/>
-      <c r="O144" s="11"/>
-      <c r="P144" s="11"/>
-      <c r="Q144" s="11"/>
-      <c r="R144" s="11"/>
-      <c r="S144" s="11"/>
-      <c r="T144" s="12">
-        <v>1</v>
-      </c>
-      <c r="U144" s="12">
-        <v>1</v>
-      </c>
-      <c r="V144" s="11"/>
-      <c r="W144" s="12">
-        <v>1</v>
-      </c>
-      <c r="X144" s="11"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="10">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="10">
+        <v>1</v>
+      </c>
+      <c r="U144" s="10">
+        <v>1</v>
+      </c>
+      <c r="V144" s="1"/>
+      <c r="W144" s="10">
+        <v>1</v>
+      </c>
+      <c r="X144" s="1"/>
       <c r="Y144" s="6"/>
       <c r="AE144" t="str">
         <f t="shared" si="14"/>
@@ -4589,34 +4597,34 @@
     </row>
     <row r="145" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J145" s="5"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="12">
-        <v>1</v>
-      </c>
-      <c r="M145" s="11"/>
-      <c r="N145" s="12">
-        <v>1</v>
-      </c>
-      <c r="O145" s="11"/>
-      <c r="P145" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="11"/>
-      <c r="R145" s="12">
-        <v>1</v>
-      </c>
-      <c r="S145" s="11"/>
-      <c r="T145" s="12">
-        <v>1</v>
-      </c>
-      <c r="U145" s="12">
-        <v>1</v>
-      </c>
-      <c r="V145" s="11"/>
-      <c r="W145" s="12">
-        <v>1</v>
-      </c>
-      <c r="X145" s="11"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="10">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1"/>
+      <c r="N145" s="10">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1"/>
+      <c r="P145" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="10">
+        <v>1</v>
+      </c>
+      <c r="S145" s="1"/>
+      <c r="T145" s="10">
+        <v>1</v>
+      </c>
+      <c r="U145" s="10">
+        <v>1</v>
+      </c>
+      <c r="V145" s="1"/>
+      <c r="W145" s="10">
+        <v>1</v>
+      </c>
+      <c r="X145" s="1"/>
       <c r="Y145" s="6"/>
       <c r="AE145" t="str">
         <f t="shared" si="14"/>
@@ -4629,24 +4637,24 @@
     </row>
     <row r="146" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J146" s="5"/>
-      <c r="K146" s="11"/>
-      <c r="L146" s="12">
-        <v>1</v>
-      </c>
-      <c r="M146" s="11"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
-      <c r="P146" s="11"/>
-      <c r="Q146" s="11"/>
-      <c r="R146" s="11"/>
-      <c r="S146" s="11"/>
-      <c r="T146" s="11"/>
-      <c r="U146" s="11"/>
-      <c r="V146" s="11"/>
-      <c r="W146" s="12">
-        <v>1</v>
-      </c>
-      <c r="X146" s="11"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="10">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="10">
+        <v>1</v>
+      </c>
+      <c r="X146" s="1"/>
       <c r="Y146" s="6"/>
       <c r="AE146" t="str">
         <f t="shared" si="14"/>
@@ -4659,32 +4667,32 @@
     </row>
     <row r="147" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J147" s="5"/>
-      <c r="K147" s="11"/>
-      <c r="L147" s="12">
-        <v>1</v>
-      </c>
-      <c r="M147" s="11"/>
-      <c r="N147" s="12">
-        <v>1</v>
-      </c>
-      <c r="O147" s="11"/>
-      <c r="P147" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="12">
-        <v>1</v>
-      </c>
-      <c r="S147" s="11"/>
-      <c r="T147" s="12">
-        <v>1</v>
-      </c>
-      <c r="U147" s="11"/>
-      <c r="V147" s="11"/>
-      <c r="W147" s="12">
-        <v>1</v>
-      </c>
-      <c r="X147" s="11"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="10">
+        <v>1</v>
+      </c>
+      <c r="M147" s="1"/>
+      <c r="N147" s="10">
+        <v>1</v>
+      </c>
+      <c r="O147" s="1"/>
+      <c r="P147" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="10">
+        <v>1</v>
+      </c>
+      <c r="S147" s="1"/>
+      <c r="T147" s="10">
+        <v>1</v>
+      </c>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="10">
+        <v>1</v>
+      </c>
+      <c r="X147" s="1"/>
       <c r="Y147" s="6"/>
       <c r="AE147" t="str">
         <f t="shared" si="14"/>
@@ -4697,24 +4705,24 @@
     </row>
     <row r="148" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J148" s="5"/>
-      <c r="K148" s="11"/>
-      <c r="L148" s="12">
-        <v>1</v>
-      </c>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11"/>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11"/>
-      <c r="V148" s="11"/>
-      <c r="W148" s="12">
-        <v>1</v>
-      </c>
-      <c r="X148" s="11"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="10">
+        <v>1</v>
+      </c>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="10">
+        <v>1</v>
+      </c>
+      <c r="X148" s="1"/>
       <c r="Y148" s="6"/>
       <c r="AE148" t="str">
         <f t="shared" si="14"/>
@@ -4727,36 +4735,36 @@
     </row>
     <row r="149" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J149" s="5"/>
-      <c r="K149" s="11"/>
-      <c r="L149" s="12">
-        <v>1</v>
-      </c>
-      <c r="M149" s="11"/>
-      <c r="N149" s="12">
-        <v>1</v>
-      </c>
-      <c r="O149" s="11"/>
-      <c r="P149" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q149" s="11"/>
-      <c r="R149" s="12">
-        <v>1</v>
-      </c>
-      <c r="S149" s="11"/>
-      <c r="T149" s="12">
-        <v>1</v>
-      </c>
-      <c r="U149" s="12">
-        <v>1</v>
-      </c>
-      <c r="V149" s="12">
-        <v>1</v>
-      </c>
-      <c r="W149" s="12">
-        <v>1</v>
-      </c>
-      <c r="X149" s="11"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="10">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1"/>
+      <c r="N149" s="10">
+        <v>1</v>
+      </c>
+      <c r="O149" s="1"/>
+      <c r="P149" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="10">
+        <v>1</v>
+      </c>
+      <c r="S149" s="1"/>
+      <c r="T149" s="10">
+        <v>1</v>
+      </c>
+      <c r="U149" s="10">
+        <v>1</v>
+      </c>
+      <c r="V149" s="10">
+        <v>1</v>
+      </c>
+      <c r="W149" s="10">
+        <v>1</v>
+      </c>
+      <c r="X149" s="1"/>
       <c r="Y149" s="6"/>
       <c r="AE149" t="str">
         <f t="shared" si="14"/>
@@ -4769,26 +4777,26 @@
     </row>
     <row r="150" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J150" s="5"/>
-      <c r="K150" s="11"/>
-      <c r="L150" s="12">
-        <v>1</v>
-      </c>
-      <c r="M150" s="11"/>
-      <c r="N150" s="11"/>
-      <c r="O150" s="11"/>
-      <c r="P150" s="11"/>
-      <c r="Q150" s="11"/>
-      <c r="R150" s="11"/>
-      <c r="S150" s="11"/>
-      <c r="T150" s="12">
-        <v>1</v>
-      </c>
-      <c r="U150" s="11"/>
-      <c r="V150" s="11"/>
-      <c r="W150" s="12">
-        <v>1</v>
-      </c>
-      <c r="X150" s="11"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="10">
+        <v>1</v>
+      </c>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="10">
+        <v>1</v>
+      </c>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="10">
+        <v>1</v>
+      </c>
+      <c r="X150" s="1"/>
       <c r="Y150" s="6"/>
       <c r="AE150" t="str">
         <f t="shared" si="14"/>
@@ -4801,26 +4809,26 @@
     </row>
     <row r="151" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J151" s="5"/>
-      <c r="K151" s="11"/>
-      <c r="L151" s="12">
-        <v>1</v>
-      </c>
-      <c r="M151" s="11"/>
-      <c r="N151" s="11"/>
-      <c r="O151" s="11"/>
-      <c r="P151" s="11"/>
-      <c r="Q151" s="11"/>
-      <c r="R151" s="11"/>
-      <c r="S151" s="11"/>
-      <c r="T151" s="12">
-        <v>1</v>
-      </c>
-      <c r="U151" s="11"/>
-      <c r="V151" s="12">
-        <v>1</v>
-      </c>
-      <c r="W151" s="11"/>
-      <c r="X151" s="11"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="10">
+        <v>1</v>
+      </c>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="10">
+        <v>1</v>
+      </c>
+      <c r="U151" s="1"/>
+      <c r="V151" s="10">
+        <v>1</v>
+      </c>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
       <c r="Y151" s="6"/>
       <c r="AE151" t="str">
         <f t="shared" si="14"/>
@@ -4833,40 +4841,40 @@
     </row>
     <row r="152" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J152" s="5"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="12">
-        <v>1</v>
-      </c>
-      <c r="M152" s="12">
-        <v>1</v>
-      </c>
-      <c r="N152" s="12">
-        <v>1</v>
-      </c>
-      <c r="O152" s="12">
-        <v>1</v>
-      </c>
-      <c r="P152" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="12">
-        <v>1</v>
-      </c>
-      <c r="R152" s="12">
-        <v>1</v>
-      </c>
-      <c r="S152" s="12">
-        <v>1</v>
-      </c>
-      <c r="T152" s="12">
-        <v>1</v>
-      </c>
-      <c r="U152" s="12">
-        <v>1</v>
-      </c>
-      <c r="V152" s="11"/>
-      <c r="W152" s="11"/>
-      <c r="X152" s="11"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="10">
+        <v>1</v>
+      </c>
+      <c r="M152" s="10">
+        <v>1</v>
+      </c>
+      <c r="N152" s="10">
+        <v>1</v>
+      </c>
+      <c r="O152" s="10">
+        <v>1</v>
+      </c>
+      <c r="P152" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="10">
+        <v>1</v>
+      </c>
+      <c r="R152" s="10">
+        <v>1</v>
+      </c>
+      <c r="S152" s="10">
+        <v>1</v>
+      </c>
+      <c r="T152" s="10">
+        <v>1</v>
+      </c>
+      <c r="U152" s="10">
+        <v>1</v>
+      </c>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
       <c r="Y152" s="6"/>
       <c r="AE152" t="str">
         <f t="shared" si="14"/>
@@ -4935,24 +4943,24 @@
     </row>
     <row r="157" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J157" s="5"/>
-      <c r="K157" s="11"/>
-      <c r="L157" s="11"/>
-      <c r="M157" s="11"/>
-      <c r="N157" s="11"/>
-      <c r="O157" s="11"/>
-      <c r="P157" s="11"/>
-      <c r="Q157" s="12">
-        <v>1</v>
-      </c>
-      <c r="R157" s="12">
-        <v>1</v>
-      </c>
-      <c r="S157" s="11"/>
-      <c r="T157" s="11"/>
-      <c r="U157" s="11"/>
-      <c r="V157" s="11"/>
-      <c r="W157" s="11"/>
-      <c r="X157" s="11"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="10">
+        <v>1</v>
+      </c>
+      <c r="R157" s="10">
+        <v>1</v>
+      </c>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
       <c r="Y157" s="6"/>
       <c r="AE157" t="str">
         <f t="shared" ref="AE157:AE171" si="16">DEC2HEX(J157*1+K157*2+L157*4+M157*8+N157*16+O157*32+P157*64+Q157*128, 2)</f>
@@ -4969,36 +4977,36 @@
     </row>
     <row r="158" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J158" s="5"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
-      <c r="M158" s="12">
-        <v>1</v>
-      </c>
-      <c r="N158" s="12">
-        <v>1</v>
-      </c>
-      <c r="O158" s="11"/>
-      <c r="P158" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="12">
-        <v>1</v>
-      </c>
-      <c r="R158" s="12">
-        <v>1</v>
-      </c>
-      <c r="S158" s="12">
-        <v>1</v>
-      </c>
-      <c r="T158" s="11"/>
-      <c r="U158" s="12">
-        <v>1</v>
-      </c>
-      <c r="V158" s="12">
-        <v>1</v>
-      </c>
-      <c r="W158" s="11"/>
-      <c r="X158" s="11"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="10">
+        <v>1</v>
+      </c>
+      <c r="N158" s="10">
+        <v>1</v>
+      </c>
+      <c r="O158" s="1"/>
+      <c r="P158" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="10">
+        <v>1</v>
+      </c>
+      <c r="R158" s="10">
+        <v>1</v>
+      </c>
+      <c r="S158" s="10">
+        <v>1</v>
+      </c>
+      <c r="T158" s="1"/>
+      <c r="U158" s="10">
+        <v>1</v>
+      </c>
+      <c r="V158" s="10">
+        <v>1</v>
+      </c>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
       <c r="Y158" s="6"/>
       <c r="AE158" t="str">
         <f t="shared" si="16"/>
@@ -5011,44 +5019,44 @@
     </row>
     <row r="159" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J159" s="5"/>
-      <c r="K159" s="11"/>
-      <c r="L159" s="12">
-        <v>1</v>
-      </c>
-      <c r="M159" s="12">
-        <v>1</v>
-      </c>
-      <c r="N159" s="12">
-        <v>1</v>
-      </c>
-      <c r="O159" s="12">
-        <v>1</v>
-      </c>
-      <c r="P159" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q159" s="12">
-        <v>1</v>
-      </c>
-      <c r="R159" s="12">
-        <v>1</v>
-      </c>
-      <c r="S159" s="12">
-        <v>1</v>
-      </c>
-      <c r="T159" s="12">
-        <v>1</v>
-      </c>
-      <c r="U159" s="12">
-        <v>1</v>
-      </c>
-      <c r="V159" s="12">
-        <v>1</v>
-      </c>
-      <c r="W159" s="12">
-        <v>1</v>
-      </c>
-      <c r="X159" s="11"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="10">
+        <v>1</v>
+      </c>
+      <c r="M159" s="10">
+        <v>1</v>
+      </c>
+      <c r="N159" s="10">
+        <v>1</v>
+      </c>
+      <c r="O159" s="10">
+        <v>1</v>
+      </c>
+      <c r="P159" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="10">
+        <v>1</v>
+      </c>
+      <c r="R159" s="10">
+        <v>1</v>
+      </c>
+      <c r="S159" s="10">
+        <v>1</v>
+      </c>
+      <c r="T159" s="10">
+        <v>1</v>
+      </c>
+      <c r="U159" s="10">
+        <v>1</v>
+      </c>
+      <c r="V159" s="10">
+        <v>1</v>
+      </c>
+      <c r="W159" s="10">
+        <v>1</v>
+      </c>
+      <c r="X159" s="1"/>
       <c r="Y159" s="6"/>
       <c r="AE159" t="str">
         <f t="shared" si="16"/>
@@ -5061,40 +5069,40 @@
     </row>
     <row r="160" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J160" s="5"/>
-      <c r="K160" s="11"/>
-      <c r="L160" s="12">
-        <v>1</v>
-      </c>
-      <c r="M160" s="12">
-        <v>1</v>
-      </c>
-      <c r="N160" s="12">
-        <v>1</v>
-      </c>
-      <c r="O160" s="12">
-        <v>1</v>
-      </c>
-      <c r="P160" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q160" s="11"/>
-      <c r="R160" s="11"/>
-      <c r="S160" s="12">
-        <v>1</v>
-      </c>
-      <c r="T160" s="12">
-        <v>1</v>
-      </c>
-      <c r="U160" s="12">
-        <v>1</v>
-      </c>
-      <c r="V160" s="12">
-        <v>1</v>
-      </c>
-      <c r="W160" s="12">
-        <v>1</v>
-      </c>
-      <c r="X160" s="11"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="10">
+        <v>1</v>
+      </c>
+      <c r="M160" s="10">
+        <v>1</v>
+      </c>
+      <c r="N160" s="10">
+        <v>1</v>
+      </c>
+      <c r="O160" s="10">
+        <v>1</v>
+      </c>
+      <c r="P160" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="10">
+        <v>1</v>
+      </c>
+      <c r="T160" s="10">
+        <v>1</v>
+      </c>
+      <c r="U160" s="10">
+        <v>1</v>
+      </c>
+      <c r="V160" s="10">
+        <v>1</v>
+      </c>
+      <c r="W160" s="10">
+        <v>1</v>
+      </c>
+      <c r="X160" s="1"/>
       <c r="Y160" s="6"/>
       <c r="AE160" t="str">
         <f t="shared" si="16"/>
@@ -5107,28 +5115,28 @@
     </row>
     <row r="161" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J161" s="5"/>
-      <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="12">
-        <v>1</v>
-      </c>
-      <c r="N161" s="12">
-        <v>1</v>
-      </c>
-      <c r="O161" s="11"/>
-      <c r="P161" s="11"/>
-      <c r="Q161" s="11"/>
-      <c r="R161" s="11"/>
-      <c r="S161" s="11"/>
-      <c r="T161" s="11"/>
-      <c r="U161" s="12">
-        <v>1</v>
-      </c>
-      <c r="V161" s="12">
-        <v>1</v>
-      </c>
-      <c r="W161" s="11"/>
-      <c r="X161" s="11"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="10">
+        <v>1</v>
+      </c>
+      <c r="N161" s="10">
+        <v>1</v>
+      </c>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="10">
+        <v>1</v>
+      </c>
+      <c r="V161" s="10">
+        <v>1</v>
+      </c>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
       <c r="Y161" s="6"/>
       <c r="AE161" t="str">
         <f t="shared" si="16"/>
@@ -5141,36 +5149,36 @@
     </row>
     <row r="162" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J162" s="5"/>
-      <c r="K162" s="11"/>
-      <c r="L162" s="12">
-        <v>1</v>
-      </c>
-      <c r="M162" s="12">
-        <v>1</v>
-      </c>
-      <c r="N162" s="12">
-        <v>1</v>
-      </c>
-      <c r="O162" s="11"/>
-      <c r="P162" s="11"/>
-      <c r="Q162" s="12">
-        <v>1</v>
-      </c>
-      <c r="R162" s="12">
-        <v>1</v>
-      </c>
-      <c r="S162" s="11"/>
-      <c r="T162" s="11"/>
-      <c r="U162" s="12">
-        <v>1</v>
-      </c>
-      <c r="V162" s="12">
-        <v>1</v>
-      </c>
-      <c r="W162" s="12">
-        <v>1</v>
-      </c>
-      <c r="X162" s="11"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="10">
+        <v>1</v>
+      </c>
+      <c r="M162" s="10">
+        <v>1</v>
+      </c>
+      <c r="N162" s="10">
+        <v>1</v>
+      </c>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="10">
+        <v>1</v>
+      </c>
+      <c r="R162" s="10">
+        <v>1</v>
+      </c>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="10">
+        <v>1</v>
+      </c>
+      <c r="V162" s="10">
+        <v>1</v>
+      </c>
+      <c r="W162" s="10">
+        <v>1</v>
+      </c>
+      <c r="X162" s="1"/>
       <c r="Y162" s="6"/>
       <c r="AE162" t="str">
         <f t="shared" si="16"/>
@@ -5183,34 +5191,34 @@
     </row>
     <row r="163" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J163" s="5"/>
-      <c r="K163" s="12">
-        <v>1</v>
-      </c>
-      <c r="L163" s="12">
-        <v>1</v>
-      </c>
-      <c r="M163" s="12">
-        <v>1</v>
-      </c>
-      <c r="N163" s="11"/>
-      <c r="O163" s="11"/>
-      <c r="P163" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q163" s="11"/>
-      <c r="R163" s="11"/>
-      <c r="S163" s="12">
-        <v>1</v>
-      </c>
-      <c r="T163" s="11"/>
-      <c r="U163" s="11"/>
-      <c r="V163" s="12">
-        <v>1</v>
-      </c>
-      <c r="W163" s="12">
-        <v>1</v>
-      </c>
-      <c r="X163" s="12">
+      <c r="K163" s="10">
+        <v>1</v>
+      </c>
+      <c r="L163" s="10">
+        <v>1</v>
+      </c>
+      <c r="M163" s="10">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="10">
+        <v>1</v>
+      </c>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="10">
+        <v>1</v>
+      </c>
+      <c r="W163" s="10">
+        <v>1</v>
+      </c>
+      <c r="X163" s="10">
         <v>1</v>
       </c>
       <c r="Y163" s="6"/>
@@ -5225,34 +5233,34 @@
     </row>
     <row r="164" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J164" s="5"/>
-      <c r="K164" s="12">
-        <v>1</v>
-      </c>
-      <c r="L164" s="12">
-        <v>1</v>
-      </c>
-      <c r="M164" s="12">
-        <v>1</v>
-      </c>
-      <c r="N164" s="11"/>
-      <c r="O164" s="11"/>
-      <c r="P164" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q164" s="11"/>
-      <c r="R164" s="11"/>
-      <c r="S164" s="12">
-        <v>1</v>
-      </c>
-      <c r="T164" s="11"/>
-      <c r="U164" s="11"/>
-      <c r="V164" s="12">
-        <v>1</v>
-      </c>
-      <c r="W164" s="12">
-        <v>1</v>
-      </c>
-      <c r="X164" s="12">
+      <c r="K164" s="10">
+        <v>1</v>
+      </c>
+      <c r="L164" s="10">
+        <v>1</v>
+      </c>
+      <c r="M164" s="10">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="10">
+        <v>1</v>
+      </c>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="10">
+        <v>1</v>
+      </c>
+      <c r="W164" s="10">
+        <v>1</v>
+      </c>
+      <c r="X164" s="10">
         <v>1</v>
       </c>
       <c r="Y164" s="6"/>
@@ -5267,36 +5275,36 @@
     </row>
     <row r="165" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J165" s="5"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="12">
-        <v>1</v>
-      </c>
-      <c r="M165" s="12">
-        <v>1</v>
-      </c>
-      <c r="N165" s="12">
-        <v>1</v>
-      </c>
-      <c r="O165" s="11"/>
-      <c r="P165" s="11"/>
-      <c r="Q165" s="12">
-        <v>1</v>
-      </c>
-      <c r="R165" s="12">
-        <v>1</v>
-      </c>
-      <c r="S165" s="11"/>
-      <c r="T165" s="11"/>
-      <c r="U165" s="12">
-        <v>1</v>
-      </c>
-      <c r="V165" s="12">
-        <v>1</v>
-      </c>
-      <c r="W165" s="12">
-        <v>1</v>
-      </c>
-      <c r="X165" s="11"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="10">
+        <v>1</v>
+      </c>
+      <c r="M165" s="10">
+        <v>1</v>
+      </c>
+      <c r="N165" s="10">
+        <v>1</v>
+      </c>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="10">
+        <v>1</v>
+      </c>
+      <c r="R165" s="10">
+        <v>1</v>
+      </c>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="10">
+        <v>1</v>
+      </c>
+      <c r="V165" s="10">
+        <v>1</v>
+      </c>
+      <c r="W165" s="10">
+        <v>1</v>
+      </c>
+      <c r="X165" s="1"/>
       <c r="Y165" s="6"/>
       <c r="AE165" t="str">
         <f t="shared" si="16"/>
@@ -5309,28 +5317,28 @@
     </row>
     <row r="166" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J166" s="5"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="12">
-        <v>1</v>
-      </c>
-      <c r="N166" s="12">
-        <v>1</v>
-      </c>
-      <c r="O166" s="11"/>
-      <c r="P166" s="11"/>
-      <c r="Q166" s="11"/>
-      <c r="R166" s="11"/>
-      <c r="S166" s="11"/>
-      <c r="T166" s="11"/>
-      <c r="U166" s="12">
-        <v>1</v>
-      </c>
-      <c r="V166" s="12">
-        <v>1</v>
-      </c>
-      <c r="W166" s="11"/>
-      <c r="X166" s="11"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="10">
+        <v>1</v>
+      </c>
+      <c r="N166" s="10">
+        <v>1</v>
+      </c>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="10">
+        <v>1</v>
+      </c>
+      <c r="V166" s="10">
+        <v>1</v>
+      </c>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
       <c r="Y166" s="6"/>
       <c r="AE166" t="str">
         <f t="shared" si="16"/>
@@ -5343,40 +5351,40 @@
     </row>
     <row r="167" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J167" s="5"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="12">
-        <v>1</v>
-      </c>
-      <c r="M167" s="12">
-        <v>1</v>
-      </c>
-      <c r="N167" s="12">
-        <v>1</v>
-      </c>
-      <c r="O167" s="12">
-        <v>1</v>
-      </c>
-      <c r="P167" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q167" s="11"/>
-      <c r="R167" s="11"/>
-      <c r="S167" s="12">
-        <v>1</v>
-      </c>
-      <c r="T167" s="12">
-        <v>1</v>
-      </c>
-      <c r="U167" s="12">
-        <v>1</v>
-      </c>
-      <c r="V167" s="12">
-        <v>1</v>
-      </c>
-      <c r="W167" s="12">
-        <v>1</v>
-      </c>
-      <c r="X167" s="11"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="10">
+        <v>1</v>
+      </c>
+      <c r="M167" s="10">
+        <v>1</v>
+      </c>
+      <c r="N167" s="10">
+        <v>1</v>
+      </c>
+      <c r="O167" s="10">
+        <v>1</v>
+      </c>
+      <c r="P167" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="10">
+        <v>1</v>
+      </c>
+      <c r="T167" s="10">
+        <v>1</v>
+      </c>
+      <c r="U167" s="10">
+        <v>1</v>
+      </c>
+      <c r="V167" s="10">
+        <v>1</v>
+      </c>
+      <c r="W167" s="10">
+        <v>1</v>
+      </c>
+      <c r="X167" s="1"/>
       <c r="Y167" s="6"/>
       <c r="AE167" t="str">
         <f t="shared" si="16"/>
@@ -5389,44 +5397,44 @@
     </row>
     <row r="168" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J168" s="5"/>
-      <c r="K168" s="11"/>
-      <c r="L168" s="12">
-        <v>1</v>
-      </c>
-      <c r="M168" s="12">
-        <v>1</v>
-      </c>
-      <c r="N168" s="12">
-        <v>1</v>
-      </c>
-      <c r="O168" s="12">
-        <v>1</v>
-      </c>
-      <c r="P168" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q168" s="12">
-        <v>1</v>
-      </c>
-      <c r="R168" s="12">
-        <v>1</v>
-      </c>
-      <c r="S168" s="12">
-        <v>1</v>
-      </c>
-      <c r="T168" s="12">
-        <v>1</v>
-      </c>
-      <c r="U168" s="12">
-        <v>1</v>
-      </c>
-      <c r="V168" s="12">
-        <v>1</v>
-      </c>
-      <c r="W168" s="12">
-        <v>1</v>
-      </c>
-      <c r="X168" s="11"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="10">
+        <v>1</v>
+      </c>
+      <c r="M168" s="10">
+        <v>1</v>
+      </c>
+      <c r="N168" s="10">
+        <v>1</v>
+      </c>
+      <c r="O168" s="10">
+        <v>1</v>
+      </c>
+      <c r="P168" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="10">
+        <v>1</v>
+      </c>
+      <c r="R168" s="10">
+        <v>1</v>
+      </c>
+      <c r="S168" s="10">
+        <v>1</v>
+      </c>
+      <c r="T168" s="10">
+        <v>1</v>
+      </c>
+      <c r="U168" s="10">
+        <v>1</v>
+      </c>
+      <c r="V168" s="10">
+        <v>1</v>
+      </c>
+      <c r="W168" s="10">
+        <v>1</v>
+      </c>
+      <c r="X168" s="1"/>
       <c r="Y168" s="6"/>
       <c r="AE168" t="str">
         <f t="shared" si="16"/>
@@ -5439,36 +5447,36 @@
     </row>
     <row r="169" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J169" s="5"/>
-      <c r="K169" s="11"/>
-      <c r="L169" s="11"/>
-      <c r="M169" s="12">
-        <v>1</v>
-      </c>
-      <c r="N169" s="12">
-        <v>1</v>
-      </c>
-      <c r="O169" s="11"/>
-      <c r="P169" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q169" s="12">
-        <v>1</v>
-      </c>
-      <c r="R169" s="12">
-        <v>1</v>
-      </c>
-      <c r="S169" s="12">
-        <v>1</v>
-      </c>
-      <c r="T169" s="11"/>
-      <c r="U169" s="12">
-        <v>1</v>
-      </c>
-      <c r="V169" s="12">
-        <v>1</v>
-      </c>
-      <c r="W169" s="11"/>
-      <c r="X169" s="11"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="10">
+        <v>1</v>
+      </c>
+      <c r="N169" s="10">
+        <v>1</v>
+      </c>
+      <c r="O169" s="1"/>
+      <c r="P169" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="10">
+        <v>1</v>
+      </c>
+      <c r="R169" s="10">
+        <v>1</v>
+      </c>
+      <c r="S169" s="10">
+        <v>1</v>
+      </c>
+      <c r="T169" s="1"/>
+      <c r="U169" s="10">
+        <v>1</v>
+      </c>
+      <c r="V169" s="10">
+        <v>1</v>
+      </c>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
       <c r="Y169" s="6"/>
       <c r="AE169" t="str">
         <f t="shared" si="16"/>
@@ -5481,24 +5489,24 @@
     </row>
     <row r="170" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J170" s="5"/>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11"/>
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-      <c r="O170" s="11"/>
-      <c r="P170" s="11"/>
-      <c r="Q170" s="12">
-        <v>1</v>
-      </c>
-      <c r="R170" s="12">
-        <v>1</v>
-      </c>
-      <c r="S170" s="11"/>
-      <c r="T170" s="11"/>
-      <c r="U170" s="11"/>
-      <c r="V170" s="11"/>
-      <c r="W170" s="11"/>
-      <c r="X170" s="11"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="10">
+        <v>1</v>
+      </c>
+      <c r="R170" s="10">
+        <v>1</v>
+      </c>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
       <c r="Y170" s="6"/>
       <c r="AE170" t="str">
         <f t="shared" si="16"/>
@@ -5567,20 +5575,20 @@
     </row>
     <row r="175" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J175" s="5"/>
-      <c r="K175" s="11"/>
-      <c r="L175" s="11"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="11"/>
-      <c r="O175" s="11"/>
-      <c r="P175" s="11"/>
-      <c r="Q175" s="11"/>
-      <c r="R175" s="11"/>
-      <c r="S175" s="11"/>
-      <c r="T175" s="11"/>
-      <c r="U175" s="11"/>
-      <c r="V175" s="11"/>
-      <c r="W175" s="11"/>
-      <c r="X175" s="11"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
       <c r="Y175" s="6"/>
       <c r="AE175" t="str">
         <f t="shared" ref="AE175:AE189" si="18">DEC2HEX(J175*1+K175*2+L175*4+M175*8+N175*16+O175*32+P175*64+Q175*128, 2)</f>
@@ -5597,22 +5605,22 @@
     </row>
     <row r="176" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J176" s="5"/>
-      <c r="K176" s="11"/>
-      <c r="L176" s="11"/>
-      <c r="M176" s="11"/>
-      <c r="N176" s="11"/>
-      <c r="O176" s="11"/>
-      <c r="P176" s="11"/>
-      <c r="Q176" s="11"/>
-      <c r="R176" s="11"/>
-      <c r="S176" s="11"/>
-      <c r="T176" s="11"/>
-      <c r="U176" s="11"/>
-      <c r="V176" s="12">
-        <v>1</v>
-      </c>
-      <c r="W176" s="11"/>
-      <c r="X176" s="11"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="10">
+        <v>1</v>
+      </c>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
       <c r="Y176" s="6"/>
       <c r="AE176" t="str">
         <f t="shared" si="18"/>
@@ -5625,22 +5633,22 @@
     </row>
     <row r="177" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J177" s="5"/>
-      <c r="K177" s="11"/>
-      <c r="L177" s="11"/>
-      <c r="M177" s="11"/>
-      <c r="N177" s="11"/>
-      <c r="O177" s="11"/>
-      <c r="P177" s="11"/>
-      <c r="Q177" s="11"/>
-      <c r="R177" s="11"/>
-      <c r="S177" s="11"/>
-      <c r="T177" s="11"/>
-      <c r="U177" s="11"/>
-      <c r="V177" s="12">
-        <v>1</v>
-      </c>
-      <c r="W177" s="11"/>
-      <c r="X177" s="11"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="10">
+        <v>1</v>
+      </c>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
       <c r="Y177" s="6"/>
       <c r="AE177" t="str">
         <f t="shared" si="18"/>
@@ -5653,24 +5661,24 @@
     </row>
     <row r="178" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J178" s="5"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11"/>
-      <c r="O178" s="11"/>
-      <c r="P178" s="11"/>
-      <c r="Q178" s="11"/>
-      <c r="R178" s="11"/>
-      <c r="S178" s="11"/>
-      <c r="T178" s="11"/>
-      <c r="U178" s="12">
-        <v>1</v>
-      </c>
-      <c r="V178" s="12">
-        <v>1</v>
-      </c>
-      <c r="W178" s="11"/>
-      <c r="X178" s="11"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="10">
+        <v>1</v>
+      </c>
+      <c r="V178" s="10">
+        <v>1</v>
+      </c>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
       <c r="Y178" s="6"/>
       <c r="AE178" t="str">
         <f t="shared" si="18"/>
@@ -5683,22 +5691,22 @@
     </row>
     <row r="179" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J179" s="5"/>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
-      <c r="O179" s="11"/>
-      <c r="P179" s="11"/>
-      <c r="Q179" s="11"/>
-      <c r="R179" s="11"/>
-      <c r="S179" s="11"/>
-      <c r="T179" s="11"/>
-      <c r="U179" s="12">
-        <v>1</v>
-      </c>
-      <c r="V179" s="11"/>
-      <c r="W179" s="11"/>
-      <c r="X179" s="11"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="10">
+        <v>1</v>
+      </c>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
       <c r="Y179" s="6"/>
       <c r="AE179" t="str">
         <f t="shared" si="18"/>
@@ -5711,24 +5719,24 @@
     </row>
     <row r="180" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J180" s="5"/>
-      <c r="K180" s="11"/>
-      <c r="L180" s="11"/>
-      <c r="M180" s="11"/>
-      <c r="N180" s="11"/>
-      <c r="O180" s="11"/>
-      <c r="P180" s="11"/>
-      <c r="Q180" s="11"/>
-      <c r="R180" s="11"/>
-      <c r="S180" s="11"/>
-      <c r="T180" s="12">
-        <v>1</v>
-      </c>
-      <c r="U180" s="12">
-        <v>1</v>
-      </c>
-      <c r="V180" s="11"/>
-      <c r="W180" s="11"/>
-      <c r="X180" s="11"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="10">
+        <v>1</v>
+      </c>
+      <c r="U180" s="10">
+        <v>1</v>
+      </c>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
       <c r="Y180" s="6"/>
       <c r="AE180" t="str">
         <f t="shared" si="18"/>
@@ -5741,22 +5749,22 @@
     </row>
     <row r="181" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J181" s="5"/>
-      <c r="K181" s="11"/>
-      <c r="L181" s="11"/>
-      <c r="M181" s="11"/>
-      <c r="N181" s="11"/>
-      <c r="O181" s="11"/>
-      <c r="P181" s="11"/>
-      <c r="Q181" s="11"/>
-      <c r="R181" s="11"/>
-      <c r="S181" s="11"/>
-      <c r="T181" s="12">
-        <v>1</v>
-      </c>
-      <c r="U181" s="11"/>
-      <c r="V181" s="11"/>
-      <c r="W181" s="11"/>
-      <c r="X181" s="11"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="10">
+        <v>1</v>
+      </c>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
       <c r="Y181" s="6"/>
       <c r="AE181" t="str">
         <f t="shared" si="18"/>
@@ -5769,24 +5777,24 @@
     </row>
     <row r="182" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J182" s="5"/>
-      <c r="K182" s="11"/>
-      <c r="L182" s="11"/>
-      <c r="M182" s="11"/>
-      <c r="N182" s="11"/>
-      <c r="O182" s="11"/>
-      <c r="P182" s="11"/>
-      <c r="Q182" s="11"/>
-      <c r="R182" s="11"/>
-      <c r="S182" s="12">
-        <v>1</v>
-      </c>
-      <c r="T182" s="12">
-        <v>1</v>
-      </c>
-      <c r="U182" s="11"/>
-      <c r="V182" s="11"/>
-      <c r="W182" s="11"/>
-      <c r="X182" s="11"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="10">
+        <v>1</v>
+      </c>
+      <c r="T182" s="10">
+        <v>1</v>
+      </c>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+      <c r="X182" s="1"/>
       <c r="Y182" s="6"/>
       <c r="AE182" t="str">
         <f t="shared" si="18"/>
@@ -5799,22 +5807,22 @@
     </row>
     <row r="183" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J183" s="5"/>
-      <c r="K183" s="11"/>
-      <c r="L183" s="11"/>
-      <c r="M183" s="11"/>
-      <c r="N183" s="11"/>
-      <c r="O183" s="11"/>
-      <c r="P183" s="11"/>
-      <c r="Q183" s="11"/>
-      <c r="R183" s="11"/>
-      <c r="S183" s="12">
-        <v>1</v>
-      </c>
-      <c r="T183" s="11"/>
-      <c r="U183" s="11"/>
-      <c r="V183" s="11"/>
-      <c r="W183" s="11"/>
-      <c r="X183" s="11"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="10">
+        <v>1</v>
+      </c>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
       <c r="Y183" s="6"/>
       <c r="AE183" t="str">
         <f t="shared" si="18"/>
@@ -5827,26 +5835,26 @@
     </row>
     <row r="184" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J184" s="5"/>
-      <c r="K184" s="11"/>
-      <c r="L184" s="11"/>
-      <c r="M184" s="12">
-        <v>1</v>
-      </c>
-      <c r="N184" s="11"/>
-      <c r="O184" s="11"/>
-      <c r="P184" s="11"/>
-      <c r="Q184" s="11"/>
-      <c r="R184" s="12">
-        <v>1</v>
-      </c>
-      <c r="S184" s="12">
-        <v>1</v>
-      </c>
-      <c r="T184" s="11"/>
-      <c r="U184" s="11"/>
-      <c r="V184" s="11"/>
-      <c r="W184" s="11"/>
-      <c r="X184" s="11"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="10">
+        <v>1</v>
+      </c>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="10">
+        <v>1</v>
+      </c>
+      <c r="S184" s="10">
+        <v>1</v>
+      </c>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
       <c r="Y184" s="6"/>
       <c r="AE184" t="str">
         <f t="shared" si="18"/>
@@ -5859,26 +5867,26 @@
     </row>
     <row r="185" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J185" s="5"/>
-      <c r="K185" s="11"/>
-      <c r="L185" s="11"/>
-      <c r="M185" s="12">
-        <v>1</v>
-      </c>
-      <c r="N185" s="12">
-        <v>1</v>
-      </c>
-      <c r="O185" s="11"/>
-      <c r="P185" s="11"/>
-      <c r="Q185" s="11"/>
-      <c r="R185" s="12">
-        <v>1</v>
-      </c>
-      <c r="S185" s="11"/>
-      <c r="T185" s="11"/>
-      <c r="U185" s="11"/>
-      <c r="V185" s="11"/>
-      <c r="W185" s="11"/>
-      <c r="X185" s="11"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="10">
+        <v>1</v>
+      </c>
+      <c r="N185" s="10">
+        <v>1</v>
+      </c>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="10">
+        <v>1</v>
+      </c>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
       <c r="Y185" s="6"/>
       <c r="AE185" t="str">
         <f t="shared" si="18"/>
@@ -5891,28 +5899,28 @@
     </row>
     <row r="186" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J186" s="5"/>
-      <c r="K186" s="11"/>
-      <c r="L186" s="11"/>
-      <c r="M186" s="11"/>
-      <c r="N186" s="12">
-        <v>1</v>
-      </c>
-      <c r="O186" s="12">
-        <v>1</v>
-      </c>
-      <c r="P186" s="11"/>
-      <c r="Q186" s="12">
-        <v>1</v>
-      </c>
-      <c r="R186" s="12">
-        <v>1</v>
-      </c>
-      <c r="S186" s="11"/>
-      <c r="T186" s="11"/>
-      <c r="U186" s="11"/>
-      <c r="V186" s="11"/>
-      <c r="W186" s="11"/>
-      <c r="X186" s="11"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="10">
+        <v>1</v>
+      </c>
+      <c r="O186" s="10">
+        <v>1</v>
+      </c>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="10">
+        <v>1</v>
+      </c>
+      <c r="R186" s="10">
+        <v>1</v>
+      </c>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
+      <c r="X186" s="1"/>
       <c r="Y186" s="6"/>
       <c r="AE186" t="str">
         <f t="shared" si="18"/>
@@ -5925,26 +5933,26 @@
     </row>
     <row r="187" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J187" s="5"/>
-      <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="11"/>
-      <c r="O187" s="12">
-        <v>1</v>
-      </c>
-      <c r="P187" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q187" s="12">
-        <v>1</v>
-      </c>
-      <c r="R187" s="11"/>
-      <c r="S187" s="11"/>
-      <c r="T187" s="11"/>
-      <c r="U187" s="11"/>
-      <c r="V187" s="11"/>
-      <c r="W187" s="11"/>
-      <c r="X187" s="11"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="10">
+        <v>1</v>
+      </c>
+      <c r="P187" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q187" s="10">
+        <v>1</v>
+      </c>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
+      <c r="X187" s="1"/>
       <c r="Y187" s="6"/>
       <c r="AE187" t="str">
         <f t="shared" si="18"/>
@@ -5957,24 +5965,24 @@
     </row>
     <row r="188" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J188" s="5"/>
-      <c r="K188" s="11"/>
-      <c r="L188" s="11"/>
-      <c r="M188" s="11"/>
-      <c r="N188" s="11"/>
-      <c r="O188" s="11"/>
-      <c r="P188" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q188" s="12">
-        <v>1</v>
-      </c>
-      <c r="R188" s="11"/>
-      <c r="S188" s="11"/>
-      <c r="T188" s="11"/>
-      <c r="U188" s="11"/>
-      <c r="V188" s="11"/>
-      <c r="W188" s="11"/>
-      <c r="X188" s="11"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="10">
+        <v>1</v>
+      </c>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
       <c r="Y188" s="6"/>
       <c r="AE188" t="str">
         <f t="shared" si="18"/>
@@ -6043,20 +6051,20 @@
     </row>
     <row r="193" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J193" s="5"/>
-      <c r="K193" s="11"/>
-      <c r="L193" s="11"/>
-      <c r="M193" s="11"/>
-      <c r="N193" s="11"/>
-      <c r="O193" s="11"/>
-      <c r="P193" s="11"/>
-      <c r="Q193" s="11"/>
-      <c r="R193" s="11"/>
-      <c r="S193" s="11"/>
-      <c r="T193" s="11"/>
-      <c r="U193" s="11"/>
-      <c r="V193" s="11"/>
-      <c r="W193" s="11"/>
-      <c r="X193" s="11"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
       <c r="Y193" s="6"/>
       <c r="AE193" t="str">
         <f t="shared" ref="AE193:AE207" si="20">DEC2HEX(J193*1+K193*2+L193*4+M193*8+N193*16+O193*32+P193*64+Q193*128, 2)</f>
@@ -6073,20 +6081,20 @@
     </row>
     <row r="194" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J194" s="5"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11"/>
-      <c r="M194" s="11"/>
-      <c r="N194" s="11"/>
-      <c r="O194" s="11"/>
-      <c r="P194" s="11"/>
-      <c r="Q194" s="11"/>
-      <c r="R194" s="11"/>
-      <c r="S194" s="11"/>
-      <c r="T194" s="11"/>
-      <c r="U194" s="11"/>
-      <c r="V194" s="11"/>
-      <c r="W194" s="11"/>
-      <c r="X194" s="11"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
       <c r="Y194" s="6"/>
       <c r="AE194" t="str">
         <f t="shared" si="20"/>
@@ -6099,20 +6107,20 @@
     </row>
     <row r="195" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J195" s="5"/>
-      <c r="K195" s="11"/>
-      <c r="L195" s="11"/>
-      <c r="M195" s="11"/>
-      <c r="N195" s="11"/>
-      <c r="O195" s="11"/>
-      <c r="P195" s="11"/>
-      <c r="Q195" s="11"/>
-      <c r="R195" s="11"/>
-      <c r="S195" s="11"/>
-      <c r="T195" s="11"/>
-      <c r="U195" s="11"/>
-      <c r="V195" s="11"/>
-      <c r="W195" s="11"/>
-      <c r="X195" s="11"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
       <c r="Y195" s="6"/>
       <c r="AE195" t="str">
         <f t="shared" si="20"/>
@@ -6125,22 +6133,22 @@
     </row>
     <row r="196" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J196" s="5"/>
-      <c r="K196" s="11"/>
-      <c r="L196" s="11"/>
-      <c r="M196" s="11"/>
-      <c r="N196" s="11"/>
-      <c r="O196" s="12">
-        <v>1</v>
-      </c>
-      <c r="P196" s="11"/>
-      <c r="Q196" s="11"/>
-      <c r="R196" s="11"/>
-      <c r="S196" s="11"/>
-      <c r="T196" s="11"/>
-      <c r="U196" s="11"/>
-      <c r="V196" s="11"/>
-      <c r="W196" s="11"/>
-      <c r="X196" s="11"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="10">
+        <v>1</v>
+      </c>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
       <c r="Y196" s="6"/>
       <c r="AE196" t="str">
         <f t="shared" si="20"/>
@@ -6153,24 +6161,24 @@
     </row>
     <row r="197" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J197" s="5"/>
-      <c r="K197" s="11"/>
-      <c r="L197" s="11"/>
-      <c r="M197" s="11"/>
-      <c r="N197" s="12">
-        <v>1</v>
-      </c>
-      <c r="O197" s="12">
-        <v>1</v>
-      </c>
-      <c r="P197" s="11"/>
-      <c r="Q197" s="11"/>
-      <c r="R197" s="11"/>
-      <c r="S197" s="11"/>
-      <c r="T197" s="11"/>
-      <c r="U197" s="11"/>
-      <c r="V197" s="11"/>
-      <c r="W197" s="11"/>
-      <c r="X197" s="11"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="10">
+        <v>1</v>
+      </c>
+      <c r="O197" s="10">
+        <v>1</v>
+      </c>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
       <c r="Y197" s="6"/>
       <c r="AE197" t="str">
         <f t="shared" si="20"/>
@@ -6183,42 +6191,42 @@
     </row>
     <row r="198" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J198" s="5"/>
-      <c r="K198" s="11"/>
-      <c r="L198" s="11"/>
-      <c r="M198" s="12">
-        <v>1</v>
-      </c>
-      <c r="N198" s="12">
-        <v>1</v>
-      </c>
-      <c r="O198" s="12">
-        <v>1</v>
-      </c>
-      <c r="P198" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q198" s="12">
-        <v>1</v>
-      </c>
-      <c r="R198" s="12">
-        <v>1</v>
-      </c>
-      <c r="S198" s="12">
-        <v>1</v>
-      </c>
-      <c r="T198" s="12">
-        <v>1</v>
-      </c>
-      <c r="U198" s="12">
-        <v>1</v>
-      </c>
-      <c r="V198" s="12">
-        <v>1</v>
-      </c>
-      <c r="W198" s="12">
-        <v>1</v>
-      </c>
-      <c r="X198" s="11"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="10">
+        <v>1</v>
+      </c>
+      <c r="N198" s="10">
+        <v>1</v>
+      </c>
+      <c r="O198" s="10">
+        <v>1</v>
+      </c>
+      <c r="P198" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="10">
+        <v>1</v>
+      </c>
+      <c r="R198" s="10">
+        <v>1</v>
+      </c>
+      <c r="S198" s="10">
+        <v>1</v>
+      </c>
+      <c r="T198" s="10">
+        <v>1</v>
+      </c>
+      <c r="U198" s="10">
+        <v>1</v>
+      </c>
+      <c r="V198" s="10">
+        <v>1</v>
+      </c>
+      <c r="W198" s="10">
+        <v>1</v>
+      </c>
+      <c r="X198" s="1"/>
       <c r="Y198" s="6"/>
       <c r="AE198" t="str">
         <f t="shared" si="20"/>
@@ -6231,44 +6239,44 @@
     </row>
     <row r="199" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J199" s="5"/>
-      <c r="K199" s="11"/>
-      <c r="L199" s="12">
-        <v>1</v>
-      </c>
-      <c r="M199" s="12">
-        <v>1</v>
-      </c>
-      <c r="N199" s="12">
-        <v>1</v>
-      </c>
-      <c r="O199" s="12">
-        <v>1</v>
-      </c>
-      <c r="P199" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q199" s="12">
-        <v>1</v>
-      </c>
-      <c r="R199" s="12">
-        <v>1</v>
-      </c>
-      <c r="S199" s="12">
-        <v>1</v>
-      </c>
-      <c r="T199" s="12">
-        <v>1</v>
-      </c>
-      <c r="U199" s="12">
-        <v>1</v>
-      </c>
-      <c r="V199" s="12">
-        <v>1</v>
-      </c>
-      <c r="W199" s="12">
-        <v>1</v>
-      </c>
-      <c r="X199" s="11"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="10">
+        <v>1</v>
+      </c>
+      <c r="M199" s="10">
+        <v>1</v>
+      </c>
+      <c r="N199" s="10">
+        <v>1</v>
+      </c>
+      <c r="O199" s="10">
+        <v>1</v>
+      </c>
+      <c r="P199" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="10">
+        <v>1</v>
+      </c>
+      <c r="R199" s="10">
+        <v>1</v>
+      </c>
+      <c r="S199" s="10">
+        <v>1</v>
+      </c>
+      <c r="T199" s="10">
+        <v>1</v>
+      </c>
+      <c r="U199" s="10">
+        <v>1</v>
+      </c>
+      <c r="V199" s="10">
+        <v>1</v>
+      </c>
+      <c r="W199" s="10">
+        <v>1</v>
+      </c>
+      <c r="X199" s="1"/>
       <c r="Y199" s="6"/>
       <c r="AE199" t="str">
         <f t="shared" si="20"/>
@@ -6281,44 +6289,44 @@
     </row>
     <row r="200" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J200" s="5"/>
-      <c r="K200" s="11"/>
-      <c r="L200" s="12">
-        <v>1</v>
-      </c>
-      <c r="M200" s="12">
-        <v>1</v>
-      </c>
-      <c r="N200" s="12">
-        <v>1</v>
-      </c>
-      <c r="O200" s="12">
-        <v>1</v>
-      </c>
-      <c r="P200" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q200" s="12">
-        <v>1</v>
-      </c>
-      <c r="R200" s="12">
-        <v>1</v>
-      </c>
-      <c r="S200" s="12">
-        <v>1</v>
-      </c>
-      <c r="T200" s="12">
-        <v>1</v>
-      </c>
-      <c r="U200" s="12">
-        <v>1</v>
-      </c>
-      <c r="V200" s="12">
-        <v>1</v>
-      </c>
-      <c r="W200" s="12">
-        <v>1</v>
-      </c>
-      <c r="X200" s="11"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="10">
+        <v>1</v>
+      </c>
+      <c r="M200" s="10">
+        <v>1</v>
+      </c>
+      <c r="N200" s="10">
+        <v>1</v>
+      </c>
+      <c r="O200" s="10">
+        <v>1</v>
+      </c>
+      <c r="P200" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q200" s="10">
+        <v>1</v>
+      </c>
+      <c r="R200" s="10">
+        <v>1</v>
+      </c>
+      <c r="S200" s="10">
+        <v>1</v>
+      </c>
+      <c r="T200" s="10">
+        <v>1</v>
+      </c>
+      <c r="U200" s="10">
+        <v>1</v>
+      </c>
+      <c r="V200" s="10">
+        <v>1</v>
+      </c>
+      <c r="W200" s="10">
+        <v>1</v>
+      </c>
+      <c r="X200" s="1"/>
       <c r="Y200" s="6"/>
       <c r="AE200" t="str">
         <f t="shared" si="20"/>
@@ -6331,42 +6339,42 @@
     </row>
     <row r="201" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J201" s="5"/>
-      <c r="K201" s="11"/>
-      <c r="L201" s="11"/>
-      <c r="M201" s="12">
-        <v>1</v>
-      </c>
-      <c r="N201" s="12">
-        <v>1</v>
-      </c>
-      <c r="O201" s="12">
-        <v>1</v>
-      </c>
-      <c r="P201" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q201" s="12">
-        <v>1</v>
-      </c>
-      <c r="R201" s="12">
-        <v>1</v>
-      </c>
-      <c r="S201" s="12">
-        <v>1</v>
-      </c>
-      <c r="T201" s="12">
-        <v>1</v>
-      </c>
-      <c r="U201" s="12">
-        <v>1</v>
-      </c>
-      <c r="V201" s="12">
-        <v>1</v>
-      </c>
-      <c r="W201" s="12">
-        <v>1</v>
-      </c>
-      <c r="X201" s="11"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="10">
+        <v>1</v>
+      </c>
+      <c r="N201" s="10">
+        <v>1</v>
+      </c>
+      <c r="O201" s="10">
+        <v>1</v>
+      </c>
+      <c r="P201" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q201" s="10">
+        <v>1</v>
+      </c>
+      <c r="R201" s="10">
+        <v>1</v>
+      </c>
+      <c r="S201" s="10">
+        <v>1</v>
+      </c>
+      <c r="T201" s="10">
+        <v>1</v>
+      </c>
+      <c r="U201" s="10">
+        <v>1</v>
+      </c>
+      <c r="V201" s="10">
+        <v>1</v>
+      </c>
+      <c r="W201" s="10">
+        <v>1</v>
+      </c>
+      <c r="X201" s="1"/>
       <c r="Y201" s="6"/>
       <c r="AE201" t="str">
         <f t="shared" si="20"/>
@@ -6379,24 +6387,24 @@
     </row>
     <row r="202" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J202" s="5"/>
-      <c r="K202" s="11"/>
-      <c r="L202" s="11"/>
-      <c r="M202" s="11"/>
-      <c r="N202" s="12">
-        <v>1</v>
-      </c>
-      <c r="O202" s="12">
-        <v>1</v>
-      </c>
-      <c r="P202" s="11"/>
-      <c r="Q202" s="11"/>
-      <c r="R202" s="11"/>
-      <c r="S202" s="11"/>
-      <c r="T202" s="11"/>
-      <c r="U202" s="11"/>
-      <c r="V202" s="11"/>
-      <c r="W202" s="11"/>
-      <c r="X202" s="11"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="10">
+        <v>1</v>
+      </c>
+      <c r="O202" s="10">
+        <v>1</v>
+      </c>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
       <c r="Y202" s="6"/>
       <c r="AE202" t="str">
         <f t="shared" si="20"/>
@@ -6409,22 +6417,22 @@
     </row>
     <row r="203" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J203" s="5"/>
-      <c r="K203" s="11"/>
-      <c r="L203" s="11"/>
-      <c r="M203" s="11"/>
-      <c r="N203" s="11"/>
-      <c r="O203" s="12">
-        <v>1</v>
-      </c>
-      <c r="P203" s="11"/>
-      <c r="Q203" s="11"/>
-      <c r="R203" s="11"/>
-      <c r="S203" s="11"/>
-      <c r="T203" s="11"/>
-      <c r="U203" s="11"/>
-      <c r="V203" s="11"/>
-      <c r="W203" s="11"/>
-      <c r="X203" s="11"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="10">
+        <v>1</v>
+      </c>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
       <c r="Y203" s="6"/>
       <c r="AE203" t="str">
         <f t="shared" si="20"/>
@@ -6437,20 +6445,20 @@
     </row>
     <row r="204" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J204" s="5"/>
-      <c r="K204" s="11"/>
-      <c r="L204" s="11"/>
-      <c r="M204" s="11"/>
-      <c r="N204" s="11"/>
-      <c r="O204" s="11"/>
-      <c r="P204" s="11"/>
-      <c r="Q204" s="11"/>
-      <c r="R204" s="11"/>
-      <c r="S204" s="11"/>
-      <c r="T204" s="11"/>
-      <c r="U204" s="11"/>
-      <c r="V204" s="11"/>
-      <c r="W204" s="11"/>
-      <c r="X204" s="11"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
       <c r="Y204" s="6"/>
       <c r="AE204" t="str">
         <f t="shared" si="20"/>
@@ -6463,20 +6471,20 @@
     </row>
     <row r="205" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J205" s="5"/>
-      <c r="K205" s="11"/>
-      <c r="L205" s="11"/>
-      <c r="M205" s="11"/>
-      <c r="N205" s="11"/>
-      <c r="O205" s="11"/>
-      <c r="P205" s="11"/>
-      <c r="Q205" s="11"/>
-      <c r="R205" s="11"/>
-      <c r="S205" s="11"/>
-      <c r="T205" s="11"/>
-      <c r="U205" s="11"/>
-      <c r="V205" s="11"/>
-      <c r="W205" s="11"/>
-      <c r="X205" s="11"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
       <c r="Y205" s="6"/>
       <c r="AE205" t="str">
         <f t="shared" si="20"/>
@@ -6489,20 +6497,20 @@
     </row>
     <row r="206" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J206" s="5"/>
-      <c r="K206" s="11"/>
-      <c r="L206" s="11"/>
-      <c r="M206" s="11"/>
-      <c r="N206" s="11"/>
-      <c r="O206" s="11"/>
-      <c r="P206" s="11"/>
-      <c r="Q206" s="11"/>
-      <c r="R206" s="11"/>
-      <c r="S206" s="11"/>
-      <c r="T206" s="11"/>
-      <c r="U206" s="11"/>
-      <c r="V206" s="11"/>
-      <c r="W206" s="11"/>
-      <c r="X206" s="11"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
       <c r="Y206" s="6"/>
       <c r="AE206" t="str">
         <f t="shared" si="20"/>
@@ -6539,10 +6547,3268 @@
         <v>00</v>
       </c>
     </row>
+    <row r="210" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J210" s="2"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="3"/>
+      <c r="W210" s="3"/>
+      <c r="X210" s="3"/>
+      <c r="Y210" s="4"/>
+      <c r="AE210" t="str">
+        <f>DEC2HEX(J210*1+K210*2+L210*4+M210*8+N210*16+O210*32+P210*64+Q210*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF210" t="str">
+        <f>DEC2HEX(R210*1+S210*2+T210*4+U210*8+V210*16+W210*32+X210*64+Y210*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI210" t="str">
+        <f>"0x"&amp;AE210&amp;",0x"&amp;AF210&amp;",0x"&amp;AE211&amp;",0x"&amp;AF211&amp;",0x"&amp;AE212&amp;",0x"&amp;AF212&amp;",0x"&amp;AE213&amp;",0x"&amp;AF213&amp;",0x"&amp;AE214&amp;",0x"&amp;AF214&amp;",0x"&amp;AE215&amp;",0x"&amp;AF215&amp;",0x"&amp;AE216&amp;",0x"&amp;AF216&amp;",0x"&amp;AE217&amp;",0x"&amp;AF217</f>
+        <v>0x00,0x00,0x20,0x0E,0x30,0x01,0x20,0x0F,0x20,0x11,0x20,0x11,0x20,0x0E,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="211" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J211" s="5"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="10">
+        <v>1</v>
+      </c>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="10">
+        <v>1</v>
+      </c>
+      <c r="T211" s="10">
+        <v>1</v>
+      </c>
+      <c r="U211" s="10">
+        <v>1</v>
+      </c>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="6"/>
+      <c r="AE211" t="str">
+        <f t="shared" ref="AE211:AE225" si="22">DEC2HEX(J211*1+K211*2+L211*4+M211*8+N211*16+O211*32+P211*64+Q211*128, 2)</f>
+        <v>20</v>
+      </c>
+      <c r="AF211" t="str">
+        <f t="shared" ref="AF211:AF225" si="23">DEC2HEX(R211*1+S211*2+T211*4+U211*8+V211*16+W211*32+X211*64+Y211*128, 2)</f>
+        <v>0E</v>
+      </c>
+      <c r="AI211" t="str">
+        <f>"0x"&amp;AE218&amp;",0x"&amp;AF218&amp;",0x"&amp;AE219&amp;",0x"&amp;AF219&amp;",0x"&amp;AE220&amp;",0x"&amp;AF220&amp;",0x"&amp;AE221&amp;",0x"&amp;AF221&amp;",0x"&amp;AE222&amp;",0x"&amp;AF222&amp;",0x"&amp;AE223&amp;",0x"&amp;AF223&amp;",0x"&amp;AE224&amp;",0x"&amp;AF224&amp;",0x"&amp;AE225&amp;",0x"&amp;AF225</f>
+        <v>0x00,0x00,0x18,0x43,0x94,0x62,0x52,0x42,0x52,0x42,0xFE,0x47,0x10,0x52,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="212" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J212" s="5"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="10">
+        <v>1</v>
+      </c>
+      <c r="O212" s="10">
+        <v>1</v>
+      </c>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="10">
+        <v>1</v>
+      </c>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+      <c r="Y212" s="6"/>
+      <c r="AE212" t="str">
+        <f t="shared" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="AF212" t="str">
+        <f t="shared" si="23"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="213" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J213" s="5"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="10">
+        <v>1</v>
+      </c>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="10">
+        <v>1</v>
+      </c>
+      <c r="S213" s="10">
+        <v>1</v>
+      </c>
+      <c r="T213" s="10">
+        <v>1</v>
+      </c>
+      <c r="U213" s="10">
+        <v>1</v>
+      </c>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+      <c r="Y213" s="6"/>
+      <c r="AE213" t="str">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="AF213" t="str">
+        <f t="shared" si="23"/>
+        <v>0F</v>
+      </c>
+    </row>
+    <row r="214" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J214" s="5"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="10">
+        <v>1</v>
+      </c>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="10">
+        <v>1</v>
+      </c>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="10">
+        <v>1</v>
+      </c>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="6"/>
+      <c r="AE214" t="str">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="AF214" t="str">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J215" s="5"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="10">
+        <v>1</v>
+      </c>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="10">
+        <v>1</v>
+      </c>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="10">
+        <v>1</v>
+      </c>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+      <c r="Y215" s="6"/>
+      <c r="AE215" t="str">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="AF215" t="str">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J216" s="5"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="10">
+        <v>1</v>
+      </c>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="10">
+        <v>1</v>
+      </c>
+      <c r="T216" s="10">
+        <v>1</v>
+      </c>
+      <c r="U216" s="10">
+        <v>1</v>
+      </c>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+      <c r="Y216" s="6"/>
+      <c r="AE216" t="str">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="AF216" t="str">
+        <f t="shared" si="23"/>
+        <v>0E</v>
+      </c>
+    </row>
+    <row r="217" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J217" s="5"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+      <c r="Y217" s="6"/>
+      <c r="AE217" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="AF217" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="218" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J218" s="5"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
+      <c r="Y218" s="6"/>
+      <c r="AE218" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="AF218" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="219" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J219" s="5"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="10">
+        <v>1</v>
+      </c>
+      <c r="N219" s="10">
+        <v>1</v>
+      </c>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="10">
+        <v>1</v>
+      </c>
+      <c r="S219" s="10">
+        <v>1</v>
+      </c>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y219" s="6"/>
+      <c r="AE219" t="str">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AF219" t="str">
+        <f t="shared" si="23"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J220" s="5"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="10">
+        <v>1</v>
+      </c>
+      <c r="M220" s="1"/>
+      <c r="N220" s="10">
+        <v>1</v>
+      </c>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="10">
+        <v>1</v>
+      </c>
+      <c r="R220" s="1"/>
+      <c r="S220" s="10">
+        <v>1</v>
+      </c>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="10">
+        <v>1</v>
+      </c>
+      <c r="X220" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y220" s="6"/>
+      <c r="AE220" t="str">
+        <f t="shared" si="22"/>
+        <v>94</v>
+      </c>
+      <c r="AF220" t="str">
+        <f t="shared" si="23"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="221" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J221" s="5"/>
+      <c r="K221" s="10">
+        <v>1</v>
+      </c>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="10">
+        <v>1</v>
+      </c>
+      <c r="O221" s="1"/>
+      <c r="P221" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="10">
+        <v>1</v>
+      </c>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y221" s="6"/>
+      <c r="AE221" t="str">
+        <f t="shared" si="22"/>
+        <v>52</v>
+      </c>
+      <c r="AF221" t="str">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="222" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J222" s="5"/>
+      <c r="K222" s="10">
+        <v>1</v>
+      </c>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="10">
+        <v>1</v>
+      </c>
+      <c r="O222" s="1"/>
+      <c r="P222" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="10">
+        <v>1</v>
+      </c>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y222" s="6"/>
+      <c r="AE222" t="str">
+        <f t="shared" si="22"/>
+        <v>52</v>
+      </c>
+      <c r="AF222" t="str">
+        <f t="shared" si="23"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J223" s="5"/>
+      <c r="K223" s="10">
+        <v>1</v>
+      </c>
+      <c r="L223" s="10">
+        <v>1</v>
+      </c>
+      <c r="M223" s="10">
+        <v>1</v>
+      </c>
+      <c r="N223" s="10">
+        <v>1</v>
+      </c>
+      <c r="O223" s="10">
+        <v>1</v>
+      </c>
+      <c r="P223" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q223" s="10">
+        <v>1</v>
+      </c>
+      <c r="R223" s="10">
+        <v>1</v>
+      </c>
+      <c r="S223" s="10">
+        <v>1</v>
+      </c>
+      <c r="T223" s="10">
+        <v>1</v>
+      </c>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y223" s="6"/>
+      <c r="AE223" t="str">
+        <f t="shared" si="22"/>
+        <v>FE</v>
+      </c>
+      <c r="AF223" t="str">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="224" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J224" s="5"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="10">
+        <v>1</v>
+      </c>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="10">
+        <v>1</v>
+      </c>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="10">
+        <v>1</v>
+      </c>
+      <c r="W224" s="1"/>
+      <c r="X224" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y224" s="6"/>
+      <c r="AE224" t="str">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="AF224" t="str">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="225" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J225" s="7"/>
+      <c r="K225" s="8"/>
+      <c r="L225" s="8"/>
+      <c r="M225" s="8"/>
+      <c r="N225" s="8"/>
+      <c r="O225" s="8"/>
+      <c r="P225" s="8"/>
+      <c r="Q225" s="8"/>
+      <c r="R225" s="8"/>
+      <c r="S225" s="8"/>
+      <c r="T225" s="8"/>
+      <c r="U225" s="8"/>
+      <c r="V225" s="8"/>
+      <c r="W225" s="8"/>
+      <c r="X225" s="8"/>
+      <c r="Y225" s="9"/>
+      <c r="AE225" t="str">
+        <f t="shared" si="22"/>
+        <v>00</v>
+      </c>
+      <c r="AF225" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="228" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J228" s="2"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
+      <c r="Y228" s="4"/>
+      <c r="AE228" t="str">
+        <f>DEC2HEX(J228*1+K228*2+L228*4+M228*8+N228*16+O228*32+P228*64+Q228*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF228" t="str">
+        <f>DEC2HEX(R228*1+S228*2+T228*4+U228*8+V228*16+W228*32+X228*64+Y228*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI228" t="str">
+        <f>"0x"&amp;AE228&amp;",0x"&amp;AF228&amp;",0x"&amp;AE229&amp;",0x"&amp;AF229&amp;",0x"&amp;AE230&amp;",0x"&amp;AF230&amp;",0x"&amp;AE231&amp;",0x"&amp;AF231&amp;",0x"&amp;AE232&amp;",0x"&amp;AF232&amp;",0x"&amp;AE233&amp;",0x"&amp;AF233&amp;",0x"&amp;AE234&amp;",0x"&amp;AF234&amp;",0x"&amp;AE235&amp;",0x"&amp;AF235</f>
+        <v>0x00,0x00,0x70,0x18,0x88,0x14,0x80,0x12,0x60,0x12,0x10,0x3E,0xF8,0x10,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="229" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J229" s="5"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="10">
+        <v>1</v>
+      </c>
+      <c r="O229" s="10">
+        <v>1</v>
+      </c>
+      <c r="P229" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="10">
+        <v>1</v>
+      </c>
+      <c r="V229" s="10">
+        <v>1</v>
+      </c>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+      <c r="Y229" s="6"/>
+      <c r="AE229" t="str">
+        <f t="shared" ref="AE229:AE243" si="24">DEC2HEX(J229*1+K229*2+L229*4+M229*8+N229*16+O229*32+P229*64+Q229*128, 2)</f>
+        <v>70</v>
+      </c>
+      <c r="AF229" t="str">
+        <f t="shared" ref="AF229:AF243" si="25">DEC2HEX(R229*1+S229*2+T229*4+U229*8+V229*16+W229*32+X229*64+Y229*128, 2)</f>
+        <v>18</v>
+      </c>
+      <c r="AI229" t="str">
+        <f>"0x"&amp;AE236&amp;",0x"&amp;AF236&amp;",0x"&amp;AE237&amp;",0x"&amp;AF237&amp;",0x"&amp;AE238&amp;",0x"&amp;AF238&amp;",0x"&amp;AE239&amp;",0x"&amp;AF239&amp;",0x"&amp;AE240&amp;",0x"&amp;AF240&amp;",0x"&amp;AE241&amp;",0x"&amp;AF241&amp;",0x"&amp;AE242&amp;",0x"&amp;AF242&amp;",0x"&amp;AE243&amp;",0x"&amp;AF243</f>
+        <v>0x00,0x00,0x60,0x1C,0x50,0x22,0x48,0x1C,0x48,0x22,0xF8,0x22,0x40,0x1C,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="230" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J230" s="5"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="10">
+        <v>1</v>
+      </c>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="10">
+        <v>1</v>
+      </c>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="10">
+        <v>1</v>
+      </c>
+      <c r="U230" s="1"/>
+      <c r="V230" s="10">
+        <v>1</v>
+      </c>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="6"/>
+      <c r="AE230" t="str">
+        <f t="shared" si="24"/>
+        <v>88</v>
+      </c>
+      <c r="AF230" t="str">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J231" s="5"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="10">
+        <v>1</v>
+      </c>
+      <c r="R231" s="1"/>
+      <c r="S231" s="10">
+        <v>1</v>
+      </c>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="10">
+        <v>1</v>
+      </c>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="6"/>
+      <c r="AE231" t="str">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="AF231" t="str">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J232" s="5"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="10">
+        <v>1</v>
+      </c>
+      <c r="P232" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="10">
+        <v>1</v>
+      </c>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="10">
+        <v>1</v>
+      </c>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="6"/>
+      <c r="AE232" t="str">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="AF232" t="str">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="233" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J233" s="5"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="10">
+        <v>1</v>
+      </c>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="10">
+        <v>1</v>
+      </c>
+      <c r="T233" s="10">
+        <v>1</v>
+      </c>
+      <c r="U233" s="10">
+        <v>1</v>
+      </c>
+      <c r="V233" s="10">
+        <v>1</v>
+      </c>
+      <c r="W233" s="10">
+        <v>1</v>
+      </c>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="6"/>
+      <c r="AE233" t="str">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="AF233" t="str">
+        <f t="shared" si="25"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="234" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J234" s="5"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="10">
+        <v>1</v>
+      </c>
+      <c r="N234" s="10">
+        <v>1</v>
+      </c>
+      <c r="O234" s="10">
+        <v>1</v>
+      </c>
+      <c r="P234" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q234" s="10">
+        <v>1</v>
+      </c>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="10">
+        <v>1</v>
+      </c>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="6"/>
+      <c r="AE234" t="str">
+        <f t="shared" si="24"/>
+        <v>F8</v>
+      </c>
+      <c r="AF234" t="str">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J235" s="5"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="6"/>
+      <c r="AE235" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="AF235" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="236" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J236" s="5"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="6"/>
+      <c r="AE236" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="AF236" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="237" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J237" s="5"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="10">
+        <v>1</v>
+      </c>
+      <c r="P237" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="10">
+        <v>1</v>
+      </c>
+      <c r="U237" s="10">
+        <v>1</v>
+      </c>
+      <c r="V237" s="10">
+        <v>1</v>
+      </c>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="6"/>
+      <c r="AE237" t="str">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="AF237" t="str">
+        <f t="shared" si="25"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="238" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J238" s="5"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="10">
+        <v>1</v>
+      </c>
+      <c r="O238" s="1"/>
+      <c r="P238" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="10">
+        <v>1</v>
+      </c>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="10">
+        <v>1</v>
+      </c>
+      <c r="X238" s="1"/>
+      <c r="Y238" s="6"/>
+      <c r="AE238" t="str">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="AF238" t="str">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J239" s="5"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="10">
+        <v>1</v>
+      </c>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="10">
+        <v>1</v>
+      </c>
+      <c r="U239" s="10">
+        <v>1</v>
+      </c>
+      <c r="V239" s="10">
+        <v>1</v>
+      </c>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="6"/>
+      <c r="AE239" t="str">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="AF239" t="str">
+        <f t="shared" si="25"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="240" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J240" s="5"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="10">
+        <v>1</v>
+      </c>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="10">
+        <v>1</v>
+      </c>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="10">
+        <v>1</v>
+      </c>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="6"/>
+      <c r="AE240" t="str">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="AF240" t="str">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J241" s="5"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="10">
+        <v>1</v>
+      </c>
+      <c r="N241" s="10">
+        <v>1</v>
+      </c>
+      <c r="O241" s="10">
+        <v>1</v>
+      </c>
+      <c r="P241" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q241" s="10">
+        <v>1</v>
+      </c>
+      <c r="R241" s="1"/>
+      <c r="S241" s="10">
+        <v>1</v>
+      </c>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="10">
+        <v>1</v>
+      </c>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="6"/>
+      <c r="AE241" t="str">
+        <f t="shared" si="24"/>
+        <v>F8</v>
+      </c>
+      <c r="AF241" t="str">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J242" s="5"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="10">
+        <v>1</v>
+      </c>
+      <c r="U242" s="10">
+        <v>1</v>
+      </c>
+      <c r="V242" s="10">
+        <v>1</v>
+      </c>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="6"/>
+      <c r="AE242" t="str">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="AF242" t="str">
+        <f t="shared" si="25"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="243" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J243" s="7"/>
+      <c r="K243" s="8"/>
+      <c r="L243" s="8"/>
+      <c r="M243" s="8"/>
+      <c r="N243" s="8"/>
+      <c r="O243" s="8"/>
+      <c r="P243" s="8"/>
+      <c r="Q243" s="8"/>
+      <c r="R243" s="8"/>
+      <c r="S243" s="8"/>
+      <c r="T243" s="8"/>
+      <c r="U243" s="8"/>
+      <c r="V243" s="8"/>
+      <c r="W243" s="8"/>
+      <c r="X243" s="8"/>
+      <c r="Y243" s="9"/>
+      <c r="AE243" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="AF243" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="246" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J246" s="2"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3"/>
+      <c r="S246" s="3"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+      <c r="Y246" s="4"/>
+      <c r="AE246" t="str">
+        <f>DEC2HEX(J246*1+K246*2+L246*4+M246*8+N246*16+O246*32+P246*64+Q246*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF246" t="str">
+        <f>DEC2HEX(R246*1+S246*2+T246*4+U246*8+V246*16+W246*32+X246*64+Y246*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI246" t="str">
+        <f>"0x"&amp;AE246&amp;",0x"&amp;AF246&amp;",0x"&amp;AE247&amp;",0x"&amp;AF247&amp;",0x"&amp;AE248&amp;",0x"&amp;AF248&amp;",0x"&amp;AE249&amp;",0x"&amp;AF249&amp;",0x"&amp;AE250&amp;",0x"&amp;AF250&amp;",0x"&amp;AE251&amp;",0x"&amp;AF251&amp;",0x"&amp;AE252&amp;",0x"&amp;AF252&amp;",0x"&amp;AE253&amp;",0x"&amp;AF253</f>
+        <v>0x00,0x00,0x70,0x1C,0x88,0x22,0x60,0x20,0x80,0x18,0x88,0x04,0x70,0x3E,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="247" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J247" s="5"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="10">
+        <v>1</v>
+      </c>
+      <c r="O247" s="10">
+        <v>1</v>
+      </c>
+      <c r="P247" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="10">
+        <v>1</v>
+      </c>
+      <c r="U247" s="10">
+        <v>1</v>
+      </c>
+      <c r="V247" s="10">
+        <v>1</v>
+      </c>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+      <c r="Y247" s="6"/>
+      <c r="AE247" t="str">
+        <f t="shared" ref="AE247:AE261" si="26">DEC2HEX(J247*1+K247*2+L247*4+M247*8+N247*16+O247*32+P247*64+Q247*128, 2)</f>
+        <v>70</v>
+      </c>
+      <c r="AF247" t="str">
+        <f t="shared" ref="AF247:AF261" si="27">DEC2HEX(R247*1+S247*2+T247*4+U247*8+V247*16+W247*32+X247*64+Y247*128, 2)</f>
+        <v>1C</v>
+      </c>
+      <c r="AI247" t="str">
+        <f>"0x"&amp;AE254&amp;",0x"&amp;AF254&amp;",0x"&amp;AE255&amp;",0x"&amp;AF255&amp;",0x"&amp;AE256&amp;",0x"&amp;AF256&amp;",0x"&amp;AE257&amp;",0x"&amp;AF257&amp;",0x"&amp;AE258&amp;",0x"&amp;AF258&amp;",0x"&amp;AE259&amp;",0x"&amp;AF259&amp;",0x"&amp;AE260&amp;",0x"&amp;AF260&amp;",0x"&amp;AE261&amp;",0x"&amp;AF261</f>
+        <v>0x00,0x00,0x70,0x1C,0x88,0x22,0x70,0x1C,0x88,0x22,0x88,0x22,0x70,0x1C,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="248" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J248" s="5"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="10">
+        <v>1</v>
+      </c>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="10">
+        <v>1</v>
+      </c>
+      <c r="R248" s="1"/>
+      <c r="S248" s="10">
+        <v>1</v>
+      </c>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="10">
+        <v>1</v>
+      </c>
+      <c r="X248" s="1"/>
+      <c r="Y248" s="6"/>
+      <c r="AE248" t="str">
+        <f t="shared" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="AF248" t="str">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J249" s="5"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="10">
+        <v>1</v>
+      </c>
+      <c r="P249" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="10">
+        <v>1</v>
+      </c>
+      <c r="X249" s="1"/>
+      <c r="Y249" s="6"/>
+      <c r="AE249" t="str">
+        <f t="shared" si="26"/>
+        <v>60</v>
+      </c>
+      <c r="AF249" t="str">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J250" s="5"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="10">
+        <v>1</v>
+      </c>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="10">
+        <v>1</v>
+      </c>
+      <c r="V250" s="10">
+        <v>1</v>
+      </c>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+      <c r="Y250" s="6"/>
+      <c r="AE250" t="str">
+        <f t="shared" si="26"/>
+        <v>80</v>
+      </c>
+      <c r="AF250" t="str">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J251" s="5"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="10">
+        <v>1</v>
+      </c>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="10">
+        <v>1</v>
+      </c>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="10">
+        <v>1</v>
+      </c>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="6"/>
+      <c r="AE251" t="str">
+        <f t="shared" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="AF251" t="str">
+        <f t="shared" si="27"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="252" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J252" s="5"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="10">
+        <v>1</v>
+      </c>
+      <c r="O252" s="10">
+        <v>1</v>
+      </c>
+      <c r="P252" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="10">
+        <v>1</v>
+      </c>
+      <c r="T252" s="10">
+        <v>1</v>
+      </c>
+      <c r="U252" s="10">
+        <v>1</v>
+      </c>
+      <c r="V252" s="10">
+        <v>1</v>
+      </c>
+      <c r="W252" s="10">
+        <v>1</v>
+      </c>
+      <c r="X252" s="1"/>
+      <c r="Y252" s="6"/>
+      <c r="AE252" t="str">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="AF252" t="str">
+        <f t="shared" si="27"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="253" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J253" s="5"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="X253" s="1"/>
+      <c r="Y253" s="6"/>
+      <c r="AE253" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="AF253" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="254" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J254" s="5"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
+      <c r="W254" s="1"/>
+      <c r="X254" s="1"/>
+      <c r="Y254" s="6"/>
+      <c r="AE254" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="AF254" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="255" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J255" s="5"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="10">
+        <v>1</v>
+      </c>
+      <c r="O255" s="10">
+        <v>1</v>
+      </c>
+      <c r="P255" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="10">
+        <v>1</v>
+      </c>
+      <c r="U255" s="10">
+        <v>1</v>
+      </c>
+      <c r="V255" s="10">
+        <v>1</v>
+      </c>
+      <c r="W255" s="1"/>
+      <c r="X255" s="1"/>
+      <c r="Y255" s="6"/>
+      <c r="AE255" t="str">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="AF255" t="str">
+        <f t="shared" si="27"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="256" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J256" s="5"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="10">
+        <v>1</v>
+      </c>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="10">
+        <v>1</v>
+      </c>
+      <c r="R256" s="1"/>
+      <c r="S256" s="10">
+        <v>1</v>
+      </c>
+      <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
+      <c r="W256" s="10">
+        <v>1</v>
+      </c>
+      <c r="X256" s="1"/>
+      <c r="Y256" s="6"/>
+      <c r="AE256" t="str">
+        <f t="shared" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="AF256" t="str">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J257" s="5"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="10">
+        <v>1</v>
+      </c>
+      <c r="O257" s="10">
+        <v>1</v>
+      </c>
+      <c r="P257" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="10">
+        <v>1</v>
+      </c>
+      <c r="U257" s="10">
+        <v>1</v>
+      </c>
+      <c r="V257" s="10">
+        <v>1</v>
+      </c>
+      <c r="W257" s="1"/>
+      <c r="X257" s="1"/>
+      <c r="Y257" s="6"/>
+      <c r="AE257" t="str">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="AF257" t="str">
+        <f t="shared" si="27"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="258" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J258" s="5"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="10">
+        <v>1</v>
+      </c>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="10">
+        <v>1</v>
+      </c>
+      <c r="R258" s="1"/>
+      <c r="S258" s="10">
+        <v>1</v>
+      </c>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="10">
+        <v>1</v>
+      </c>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="6"/>
+      <c r="AE258" t="str">
+        <f t="shared" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="AF258" t="str">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="259" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J259" s="5"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="10">
+        <v>1</v>
+      </c>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="10">
+        <v>1</v>
+      </c>
+      <c r="R259" s="1"/>
+      <c r="S259" s="10">
+        <v>1</v>
+      </c>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="10">
+        <v>1</v>
+      </c>
+      <c r="X259" s="1"/>
+      <c r="Y259" s="6"/>
+      <c r="AE259" t="str">
+        <f t="shared" si="26"/>
+        <v>88</v>
+      </c>
+      <c r="AF259" t="str">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J260" s="5"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="10">
+        <v>1</v>
+      </c>
+      <c r="O260" s="10">
+        <v>1</v>
+      </c>
+      <c r="P260" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="10">
+        <v>1</v>
+      </c>
+      <c r="U260" s="10">
+        <v>1</v>
+      </c>
+      <c r="V260" s="10">
+        <v>1</v>
+      </c>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1"/>
+      <c r="Y260" s="6"/>
+      <c r="AE260" t="str">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="AF260" t="str">
+        <f t="shared" si="27"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="261" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J261" s="7"/>
+      <c r="K261" s="8"/>
+      <c r="L261" s="8"/>
+      <c r="M261" s="8"/>
+      <c r="N261" s="8"/>
+      <c r="O261" s="8"/>
+      <c r="P261" s="8"/>
+      <c r="Q261" s="8"/>
+      <c r="R261" s="8"/>
+      <c r="S261" s="8"/>
+      <c r="T261" s="8"/>
+      <c r="U261" s="8"/>
+      <c r="V261" s="8"/>
+      <c r="W261" s="8"/>
+      <c r="X261" s="8"/>
+      <c r="Y261" s="9"/>
+      <c r="AE261" t="str">
+        <f t="shared" si="26"/>
+        <v>00</v>
+      </c>
+      <c r="AF261" t="str">
+        <f t="shared" si="27"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="264" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J264" s="2"/>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3"/>
+      <c r="Q264" s="3"/>
+      <c r="R264" s="3"/>
+      <c r="S264" s="3"/>
+      <c r="T264" s="3"/>
+      <c r="U264" s="3"/>
+      <c r="V264" s="3"/>
+      <c r="W264" s="3"/>
+      <c r="X264" s="3"/>
+      <c r="Y264" s="4"/>
+      <c r="AE264" t="str">
+        <f>DEC2HEX(J264*1+K264*2+L264*4+M264*8+N264*16+O264*32+P264*64+Q264*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF264" t="str">
+        <f>DEC2HEX(R264*1+S264*2+T264*4+U264*8+V264*16+W264*32+X264*64+Y264*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI264" t="str">
+        <f>"0x"&amp;AE264&amp;",0x"&amp;AF264&amp;",0x"&amp;AE265&amp;",0x"&amp;AF265&amp;",0x"&amp;AE266&amp;",0x"&amp;AF266&amp;",0x"&amp;AE267&amp;",0x"&amp;AF267&amp;",0x"&amp;AE268&amp;",0x"&amp;AF268&amp;",0x"&amp;AE269&amp;",0x"&amp;AF269&amp;",0x"&amp;AE270&amp;",0x"&amp;AF270&amp;",0x"&amp;AE271&amp;",0x"&amp;AF271</f>
+        <v>0x00,0x00,0x70,0x18,0x88,0x14,0x80,0x12,0x60,0x12,0x10,0x3E,0xF8,0x10,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="265" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J265" s="5"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="10">
+        <v>1</v>
+      </c>
+      <c r="O265" s="10">
+        <v>1</v>
+      </c>
+      <c r="P265" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="10">
+        <v>1</v>
+      </c>
+      <c r="V265" s="10">
+        <v>1</v>
+      </c>
+      <c r="W265" s="1"/>
+      <c r="X265" s="1"/>
+      <c r="Y265" s="6"/>
+      <c r="AE265" t="str">
+        <f t="shared" ref="AE265:AE279" si="28">DEC2HEX(J265*1+K265*2+L265*4+M265*8+N265*16+O265*32+P265*64+Q265*128, 2)</f>
+        <v>70</v>
+      </c>
+      <c r="AF265" t="str">
+        <f t="shared" ref="AF265:AF279" si="29">DEC2HEX(R265*1+S265*2+T265*4+U265*8+V265*16+W265*32+X265*64+Y265*128, 2)</f>
+        <v>18</v>
+      </c>
+      <c r="AI265" t="str">
+        <f>"0x"&amp;AE272&amp;",0x"&amp;AF272&amp;",0x"&amp;AE273&amp;",0x"&amp;AF273&amp;",0x"&amp;AE274&amp;",0x"&amp;AF274&amp;",0x"&amp;AE275&amp;",0x"&amp;AF275&amp;",0x"&amp;AE276&amp;",0x"&amp;AF276&amp;",0x"&amp;AE277&amp;",0x"&amp;AF277&amp;",0x"&amp;AE278&amp;",0x"&amp;AF278&amp;",0x"&amp;AE279&amp;",0x"&amp;AF279</f>
+        <v>0x00,0x00,0x70,0x1C,0x88,0x02,0x88,0x1E,0xF0,0x22,0x80,0x22,0x70,0x1C,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="266" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J266" s="5"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="10">
+        <v>1</v>
+      </c>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="10">
+        <v>1</v>
+      </c>
+      <c r="R266" s="1"/>
+      <c r="S266" s="1"/>
+      <c r="T266" s="10">
+        <v>1</v>
+      </c>
+      <c r="U266" s="1"/>
+      <c r="V266" s="10">
+        <v>1</v>
+      </c>
+      <c r="W266" s="1"/>
+      <c r="X266" s="1"/>
+      <c r="Y266" s="6"/>
+      <c r="AE266" t="str">
+        <f t="shared" si="28"/>
+        <v>88</v>
+      </c>
+      <c r="AF266" t="str">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J267" s="5"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="10">
+        <v>1</v>
+      </c>
+      <c r="R267" s="1"/>
+      <c r="S267" s="10">
+        <v>1</v>
+      </c>
+      <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="10">
+        <v>1</v>
+      </c>
+      <c r="W267" s="1"/>
+      <c r="X267" s="1"/>
+      <c r="Y267" s="6"/>
+      <c r="AE267" t="str">
+        <f t="shared" si="28"/>
+        <v>80</v>
+      </c>
+      <c r="AF267" t="str">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J268" s="5"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="10">
+        <v>1</v>
+      </c>
+      <c r="P268" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="S268" s="10">
+        <v>1</v>
+      </c>
+      <c r="T268" s="1"/>
+      <c r="U268" s="1"/>
+      <c r="V268" s="10">
+        <v>1</v>
+      </c>
+      <c r="W268" s="1"/>
+      <c r="X268" s="1"/>
+      <c r="Y268" s="6"/>
+      <c r="AE268" t="str">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="AF268" t="str">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J269" s="5"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="10">
+        <v>1</v>
+      </c>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="S269" s="10">
+        <v>1</v>
+      </c>
+      <c r="T269" s="10">
+        <v>1</v>
+      </c>
+      <c r="U269" s="10">
+        <v>1</v>
+      </c>
+      <c r="V269" s="10">
+        <v>1</v>
+      </c>
+      <c r="W269" s="10">
+        <v>1</v>
+      </c>
+      <c r="X269" s="1"/>
+      <c r="Y269" s="6"/>
+      <c r="AE269" t="str">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="AF269" t="str">
+        <f t="shared" si="29"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="270" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J270" s="5"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="10">
+        <v>1</v>
+      </c>
+      <c r="N270" s="10">
+        <v>1</v>
+      </c>
+      <c r="O270" s="10">
+        <v>1</v>
+      </c>
+      <c r="P270" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q270" s="10">
+        <v>1</v>
+      </c>
+      <c r="R270" s="1"/>
+      <c r="S270" s="1"/>
+      <c r="T270" s="1"/>
+      <c r="U270" s="1"/>
+      <c r="V270" s="10">
+        <v>1</v>
+      </c>
+      <c r="W270" s="1"/>
+      <c r="X270" s="1"/>
+      <c r="Y270" s="6"/>
+      <c r="AE270" t="str">
+        <f t="shared" si="28"/>
+        <v>F8</v>
+      </c>
+      <c r="AF270" t="str">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J271" s="5"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="S271" s="1"/>
+      <c r="T271" s="1"/>
+      <c r="U271" s="1"/>
+      <c r="V271" s="1"/>
+      <c r="W271" s="1"/>
+      <c r="X271" s="1"/>
+      <c r="Y271" s="6"/>
+      <c r="AE271" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="AF271" t="str">
+        <f t="shared" si="29"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="272" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J272" s="5"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="S272" s="1"/>
+      <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
+      <c r="W272" s="1"/>
+      <c r="X272" s="1"/>
+      <c r="Y272" s="6"/>
+      <c r="AE272" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="AF272" t="str">
+        <f t="shared" si="29"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="273" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J273" s="5"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="10">
+        <v>1</v>
+      </c>
+      <c r="O273" s="10">
+        <v>1</v>
+      </c>
+      <c r="P273" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="S273" s="1"/>
+      <c r="T273" s="10">
+        <v>1</v>
+      </c>
+      <c r="U273" s="10">
+        <v>1</v>
+      </c>
+      <c r="V273" s="10">
+        <v>1</v>
+      </c>
+      <c r="W273" s="1"/>
+      <c r="X273" s="1"/>
+      <c r="Y273" s="6"/>
+      <c r="AE273" t="str">
+        <f t="shared" si="28"/>
+        <v>70</v>
+      </c>
+      <c r="AF273" t="str">
+        <f t="shared" si="29"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="274" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J274" s="5"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="10">
+        <v>1</v>
+      </c>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+      <c r="Q274" s="10">
+        <v>1</v>
+      </c>
+      <c r="R274" s="1"/>
+      <c r="S274" s="10">
+        <v>1</v>
+      </c>
+      <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
+      <c r="V274" s="1"/>
+      <c r="W274" s="1"/>
+      <c r="X274" s="1"/>
+      <c r="Y274" s="6"/>
+      <c r="AE274" t="str">
+        <f t="shared" si="28"/>
+        <v>88</v>
+      </c>
+      <c r="AF274" t="str">
+        <f t="shared" si="29"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="275" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J275" s="5"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="10">
+        <v>1</v>
+      </c>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+      <c r="Q275" s="10">
+        <v>1</v>
+      </c>
+      <c r="R275" s="1"/>
+      <c r="S275" s="10">
+        <v>1</v>
+      </c>
+      <c r="T275" s="10">
+        <v>1</v>
+      </c>
+      <c r="U275" s="10">
+        <v>1</v>
+      </c>
+      <c r="V275" s="10">
+        <v>1</v>
+      </c>
+      <c r="W275" s="1"/>
+      <c r="X275" s="1"/>
+      <c r="Y275" s="6"/>
+      <c r="AE275" t="str">
+        <f t="shared" si="28"/>
+        <v>88</v>
+      </c>
+      <c r="AF275" t="str">
+        <f t="shared" si="29"/>
+        <v>1E</v>
+      </c>
+    </row>
+    <row r="276" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J276" s="5"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="10">
+        <v>1</v>
+      </c>
+      <c r="O276" s="10">
+        <v>1</v>
+      </c>
+      <c r="P276" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q276" s="10">
+        <v>1</v>
+      </c>
+      <c r="R276" s="1"/>
+      <c r="S276" s="10">
+        <v>1</v>
+      </c>
+      <c r="T276" s="1"/>
+      <c r="U276" s="1"/>
+      <c r="V276" s="1"/>
+      <c r="W276" s="10">
+        <v>1</v>
+      </c>
+      <c r="X276" s="1"/>
+      <c r="Y276" s="6"/>
+      <c r="AE276" t="str">
+        <f t="shared" si="28"/>
+        <v>F0</v>
+      </c>
+      <c r="AF276" t="str">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J277" s="5"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1"/>
+      <c r="Q277" s="10">
+        <v>1</v>
+      </c>
+      <c r="R277" s="1"/>
+      <c r="S277" s="10">
+        <v>1</v>
+      </c>
+      <c r="T277" s="1"/>
+      <c r="U277" s="1"/>
+      <c r="V277" s="1"/>
+      <c r="W277" s="10">
+        <v>1</v>
+      </c>
+      <c r="X277" s="1"/>
+      <c r="Y277" s="6"/>
+      <c r="AE277" t="str">
+        <f t="shared" si="28"/>
+        <v>80</v>
+      </c>
+      <c r="AF277" t="str">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J278" s="5"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="10">
+        <v>1</v>
+      </c>
+      <c r="O278" s="10">
+        <v>1</v>
+      </c>
+      <c r="P278" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="S278" s="1"/>
+      <c r="T278" s="10">
+        <v>1</v>
+      </c>
+      <c r="U278" s="10">
+        <v>1</v>
+      </c>
+      <c r="V278" s="10">
+        <v>1</v>
+      </c>
+      <c r="W278" s="1"/>
+      <c r="X278" s="1"/>
+      <c r="Y278" s="6"/>
+      <c r="AE278" t="str">
+        <f t="shared" si="28"/>
+        <v>70</v>
+      </c>
+      <c r="AF278" t="str">
+        <f t="shared" si="29"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="279" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J279" s="7"/>
+      <c r="K279" s="8"/>
+      <c r="L279" s="8"/>
+      <c r="M279" s="8"/>
+      <c r="N279" s="8"/>
+      <c r="O279" s="8"/>
+      <c r="P279" s="8"/>
+      <c r="Q279" s="8"/>
+      <c r="R279" s="8"/>
+      <c r="S279" s="8"/>
+      <c r="T279" s="8"/>
+      <c r="U279" s="8"/>
+      <c r="V279" s="8"/>
+      <c r="W279" s="8"/>
+      <c r="X279" s="8"/>
+      <c r="Y279" s="9"/>
+      <c r="AE279" t="str">
+        <f t="shared" si="28"/>
+        <v>00</v>
+      </c>
+      <c r="AF279" t="str">
+        <f t="shared" si="29"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="282" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J282" s="2"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="3"/>
+      <c r="T282" s="3"/>
+      <c r="U282" s="3"/>
+      <c r="V282" s="3"/>
+      <c r="W282" s="3"/>
+      <c r="X282" s="3"/>
+      <c r="Y282" s="4"/>
+      <c r="AE282" t="str">
+        <f>DEC2HEX(J282*1+K282*2+L282*4+M282*8+N282*16+O282*32+P282*64+Q282*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF282" t="str">
+        <f>DEC2HEX(R282*1+S282*2+T282*4+U282*8+V282*16+W282*32+X282*64+Y282*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI282" t="str">
+        <f>"0x"&amp;AE282&amp;",0x"&amp;AF282&amp;",0x"&amp;AE283&amp;",0x"&amp;AF283&amp;",0x"&amp;AE284&amp;",0x"&amp;AF284&amp;",0x"&amp;AE285&amp;",0x"&amp;AF285&amp;",0x"&amp;AE286&amp;",0x"&amp;AF286&amp;",0x"&amp;AE287&amp;",0x"&amp;AF287&amp;",0x"&amp;AE288&amp;",0x"&amp;AF288&amp;",0x"&amp;AE289&amp;",0x"&amp;AF289</f>
+        <v>0x00,0x00,0x70,0x3E,0x88,0x02,0x88,0x1E,0x88,0x20,0x88,0x22,0x70,0x1C,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="283" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J283" s="5"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="5"/>
+      <c r="N283" s="10">
+        <v>1</v>
+      </c>
+      <c r="O283" s="10">
+        <v>1</v>
+      </c>
+      <c r="P283" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="S283" s="11">
+        <v>1</v>
+      </c>
+      <c r="T283" s="10">
+        <v>1</v>
+      </c>
+      <c r="U283" s="10">
+        <v>1</v>
+      </c>
+      <c r="V283" s="10">
+        <v>1</v>
+      </c>
+      <c r="W283" s="10">
+        <v>1</v>
+      </c>
+      <c r="X283" s="1"/>
+      <c r="Y283" s="6"/>
+      <c r="AE283" t="str">
+        <f t="shared" ref="AE283:AE297" si="30">DEC2HEX(J283*1+K283*2+L283*4+M283*8+N283*16+O283*32+P283*64+Q283*128, 2)</f>
+        <v>70</v>
+      </c>
+      <c r="AF283" t="str">
+        <f t="shared" ref="AF283:AF297" si="31">DEC2HEX(R283*1+S283*2+T283*4+U283*8+V283*16+W283*32+X283*64+Y283*128, 2)</f>
+        <v>3E</v>
+      </c>
+      <c r="AI283" t="str">
+        <f>"0x"&amp;AE290&amp;",0x"&amp;AF290&amp;",0x"&amp;AE291&amp;",0x"&amp;AF291&amp;",0x"&amp;AE292&amp;",0x"&amp;AF292&amp;",0x"&amp;AE293&amp;",0x"&amp;AF293&amp;",0x"&amp;AE294&amp;",0x"&amp;AF294&amp;",0x"&amp;AE295&amp;",0x"&amp;AF295&amp;",0x"&amp;AE296&amp;",0x"&amp;AF296&amp;",0x"&amp;AE297&amp;",0x"&amp;AF297</f>
+        <v>0x00,0x00,0xF4,0x39,0x16,0x05,0x04,0x3D,0x84,0x44,0x44,0x44,0x44,0x38,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="284" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J284" s="5"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="11">
+        <v>1</v>
+      </c>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="10">
+        <v>1</v>
+      </c>
+      <c r="R284" s="1"/>
+      <c r="S284" s="11">
+        <v>1</v>
+      </c>
+      <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
+      <c r="W284" s="1"/>
+      <c r="X284" s="1"/>
+      <c r="Y284" s="6"/>
+      <c r="AE284" t="str">
+        <f t="shared" si="30"/>
+        <v>88</v>
+      </c>
+      <c r="AF284" t="str">
+        <f t="shared" si="31"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="285" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J285" s="5"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="11">
+        <v>1</v>
+      </c>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="10">
+        <v>1</v>
+      </c>
+      <c r="R285" s="1"/>
+      <c r="S285" s="11">
+        <v>1</v>
+      </c>
+      <c r="T285" s="11">
+        <v>1</v>
+      </c>
+      <c r="U285" s="10">
+        <v>1</v>
+      </c>
+      <c r="V285" s="10">
+        <v>1</v>
+      </c>
+      <c r="W285" s="1"/>
+      <c r="X285" s="1"/>
+      <c r="Y285" s="6"/>
+      <c r="AE285" t="str">
+        <f t="shared" si="30"/>
+        <v>88</v>
+      </c>
+      <c r="AF285" t="str">
+        <f t="shared" si="31"/>
+        <v>1E</v>
+      </c>
+    </row>
+    <row r="286" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J286" s="5"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="11">
+        <v>1</v>
+      </c>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="10">
+        <v>1</v>
+      </c>
+      <c r="R286" s="1"/>
+      <c r="S286" s="1"/>
+      <c r="T286" s="1"/>
+      <c r="U286" s="1"/>
+      <c r="V286" s="1"/>
+      <c r="W286" s="10">
+        <v>1</v>
+      </c>
+      <c r="X286" s="1"/>
+      <c r="Y286" s="6"/>
+      <c r="AE286" t="str">
+        <f t="shared" si="30"/>
+        <v>88</v>
+      </c>
+      <c r="AF286" t="str">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J287" s="5"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="11">
+        <v>1</v>
+      </c>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="10">
+        <v>1</v>
+      </c>
+      <c r="R287" s="1"/>
+      <c r="S287" s="11">
+        <v>1</v>
+      </c>
+      <c r="T287" s="1"/>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
+      <c r="W287" s="10">
+        <v>1</v>
+      </c>
+      <c r="X287" s="1"/>
+      <c r="Y287" s="6"/>
+      <c r="AE287" t="str">
+        <f t="shared" si="30"/>
+        <v>88</v>
+      </c>
+      <c r="AF287" t="str">
+        <f t="shared" si="31"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J288" s="5"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="5"/>
+      <c r="N288" s="10">
+        <v>1</v>
+      </c>
+      <c r="O288" s="10">
+        <v>1</v>
+      </c>
+      <c r="P288" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="S288" s="1"/>
+      <c r="T288" s="10">
+        <v>1</v>
+      </c>
+      <c r="U288" s="10">
+        <v>1</v>
+      </c>
+      <c r="V288" s="10">
+        <v>1</v>
+      </c>
+      <c r="W288" s="1"/>
+      <c r="X288" s="1"/>
+      <c r="Y288" s="6"/>
+      <c r="AE288" t="str">
+        <f t="shared" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="AF288" t="str">
+        <f t="shared" si="31"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="289" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J289" s="5"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
+      <c r="R289" s="1"/>
+      <c r="S289" s="1"/>
+      <c r="T289" s="1"/>
+      <c r="U289" s="1"/>
+      <c r="V289" s="1"/>
+      <c r="W289" s="1"/>
+      <c r="X289" s="1"/>
+      <c r="Y289" s="6"/>
+      <c r="AE289" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="AF289" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="290" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J290" s="5"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="S290" s="1"/>
+      <c r="T290" s="1"/>
+      <c r="U290" s="1"/>
+      <c r="V290" s="1"/>
+      <c r="W290" s="1"/>
+      <c r="X290" s="1"/>
+      <c r="Y290" s="6"/>
+      <c r="AE290" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="AF290" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="291" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J291" s="5"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="10">
+        <v>1</v>
+      </c>
+      <c r="M291" s="1"/>
+      <c r="N291" s="10">
+        <v>1</v>
+      </c>
+      <c r="O291" s="10">
+        <v>1</v>
+      </c>
+      <c r="P291" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="10">
+        <v>1</v>
+      </c>
+      <c r="R291" s="10">
+        <v>1</v>
+      </c>
+      <c r="S291" s="1"/>
+      <c r="T291" s="1"/>
+      <c r="U291" s="10">
+        <v>1</v>
+      </c>
+      <c r="V291" s="10">
+        <v>1</v>
+      </c>
+      <c r="W291" s="10">
+        <v>1</v>
+      </c>
+      <c r="X291" s="1"/>
+      <c r="Y291" s="6"/>
+      <c r="AE291" t="str">
+        <f t="shared" si="30"/>
+        <v>F4</v>
+      </c>
+      <c r="AF291" t="str">
+        <f t="shared" si="31"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J292" s="5"/>
+      <c r="K292" s="10">
+        <v>1</v>
+      </c>
+      <c r="L292" s="10">
+        <v>1</v>
+      </c>
+      <c r="M292" s="1"/>
+      <c r="N292" s="10">
+        <v>1</v>
+      </c>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="10">
+        <v>1</v>
+      </c>
+      <c r="S292" s="1"/>
+      <c r="T292" s="10">
+        <v>1</v>
+      </c>
+      <c r="U292" s="1"/>
+      <c r="V292" s="1"/>
+      <c r="W292" s="1"/>
+      <c r="X292" s="1"/>
+      <c r="Y292" s="6"/>
+      <c r="AE292" t="str">
+        <f t="shared" si="30"/>
+        <v>16</v>
+      </c>
+      <c r="AF292" t="str">
+        <f t="shared" si="31"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="293" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J293" s="5"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="10">
+        <v>1</v>
+      </c>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="10">
+        <v>1</v>
+      </c>
+      <c r="S293" s="1"/>
+      <c r="T293" s="10">
+        <v>1</v>
+      </c>
+      <c r="U293" s="10">
+        <v>1</v>
+      </c>
+      <c r="V293" s="10">
+        <v>1</v>
+      </c>
+      <c r="W293" s="10">
+        <v>1</v>
+      </c>
+      <c r="X293" s="1"/>
+      <c r="Y293" s="6"/>
+      <c r="AE293" t="str">
+        <f t="shared" si="30"/>
+        <v>04</v>
+      </c>
+      <c r="AF293" t="str">
+        <f t="shared" si="31"/>
+        <v>3D</v>
+      </c>
+    </row>
+    <row r="294" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J294" s="5"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="10">
+        <v>1</v>
+      </c>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="10">
+        <v>1</v>
+      </c>
+      <c r="R294" s="1"/>
+      <c r="S294" s="1"/>
+      <c r="T294" s="10">
+        <v>1</v>
+      </c>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
+      <c r="W294" s="1"/>
+      <c r="X294" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y294" s="6"/>
+      <c r="AE294" t="str">
+        <f t="shared" si="30"/>
+        <v>84</v>
+      </c>
+      <c r="AF294" t="str">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J295" s="5"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="10">
+        <v>1</v>
+      </c>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="S295" s="1"/>
+      <c r="T295" s="10">
+        <v>1</v>
+      </c>
+      <c r="U295" s="1"/>
+      <c r="V295" s="1"/>
+      <c r="W295" s="1"/>
+      <c r="X295" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y295" s="6"/>
+      <c r="AE295" t="str">
+        <f t="shared" si="30"/>
+        <v>44</v>
+      </c>
+      <c r="AF295" t="str">
+        <f t="shared" si="31"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J296" s="5"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="10">
+        <v>1</v>
+      </c>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="S296" s="1"/>
+      <c r="T296" s="1"/>
+      <c r="U296" s="10">
+        <v>1</v>
+      </c>
+      <c r="V296" s="10">
+        <v>1</v>
+      </c>
+      <c r="W296" s="10">
+        <v>1</v>
+      </c>
+      <c r="X296" s="1"/>
+      <c r="Y296" s="6"/>
+      <c r="AE296" t="str">
+        <f t="shared" si="30"/>
+        <v>44</v>
+      </c>
+      <c r="AF296" t="str">
+        <f t="shared" si="31"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="297" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J297" s="7"/>
+      <c r="K297" s="8"/>
+      <c r="L297" s="8"/>
+      <c r="M297" s="8"/>
+      <c r="N297" s="8"/>
+      <c r="O297" s="8"/>
+      <c r="P297" s="8"/>
+      <c r="Q297" s="8"/>
+      <c r="R297" s="8"/>
+      <c r="S297" s="8"/>
+      <c r="T297" s="8"/>
+      <c r="U297" s="8"/>
+      <c r="V297" s="8"/>
+      <c r="W297" s="8"/>
+      <c r="X297" s="8"/>
+      <c r="Y297" s="9"/>
+      <c r="AE297" t="str">
+        <f t="shared" si="30"/>
+        <v>00</v>
+      </c>
+      <c r="AF297" t="str">
+        <f t="shared" si="31"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="300" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J300" s="2"/>
+      <c r="K300" s="3"/>
+      <c r="L300" s="3"/>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3"/>
+      <c r="P300" s="3"/>
+      <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
+      <c r="S300" s="3"/>
+      <c r="T300" s="3"/>
+      <c r="U300" s="3"/>
+      <c r="V300" s="3"/>
+      <c r="W300" s="3"/>
+      <c r="X300" s="3"/>
+      <c r="Y300" s="4"/>
+      <c r="AE300" t="str">
+        <f>DEC2HEX(J300*1+K300*2+L300*4+M300*8+N300*16+O300*32+P300*64+Q300*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF300" t="str">
+        <f>DEC2HEX(R300*1+S300*2+T300*4+U300*8+V300*16+W300*32+X300*64+Y300*128, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI300" t="str">
+        <f>"0x"&amp;AE300&amp;",0x"&amp;AF300&amp;",0x"&amp;AE301&amp;",0x"&amp;AF301&amp;",0x"&amp;AE302&amp;",0x"&amp;AF302&amp;",0x"&amp;AE303&amp;",0x"&amp;AF303&amp;",0x"&amp;AE304&amp;",0x"&amp;AF304&amp;",0x"&amp;AE305&amp;",0x"&amp;AF305&amp;",0x"&amp;AE306&amp;",0x"&amp;AF306&amp;",0x"&amp;AE307&amp;",0x"&amp;AF307</f>
+        <v>0x00,0x00,0x70,0x18,0x88,0x14,0x80,0x12,0x60,0x12,0x10,0x3E,0xF8,0x10,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="301" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J301" s="5"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="10">
+        <v>1</v>
+      </c>
+      <c r="O301" s="10">
+        <v>1</v>
+      </c>
+      <c r="P301" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="1"/>
+      <c r="R301" s="1"/>
+      <c r="S301" s="1"/>
+      <c r="T301" s="1"/>
+      <c r="U301" s="10">
+        <v>1</v>
+      </c>
+      <c r="V301" s="10">
+        <v>1</v>
+      </c>
+      <c r="W301" s="1"/>
+      <c r="X301" s="1"/>
+      <c r="Y301" s="6"/>
+      <c r="AE301" t="str">
+        <f t="shared" ref="AE301:AE315" si="32">DEC2HEX(J301*1+K301*2+L301*4+M301*8+N301*16+O301*32+P301*64+Q301*128, 2)</f>
+        <v>70</v>
+      </c>
+      <c r="AF301" t="str">
+        <f t="shared" ref="AF301:AF315" si="33">DEC2HEX(R301*1+S301*2+T301*4+U301*8+V301*16+W301*32+X301*64+Y301*128, 2)</f>
+        <v>18</v>
+      </c>
+      <c r="AI301" t="str">
+        <f>"0x"&amp;AE308&amp;",0x"&amp;AF308&amp;",0x"&amp;AE309&amp;",0x"&amp;AF309&amp;",0x"&amp;AE310&amp;",0x"&amp;AF310&amp;",0x"&amp;AE311&amp;",0x"&amp;AF311&amp;",0x"&amp;AE312&amp;",0x"&amp;AF312&amp;",0x"&amp;AE313&amp;",0x"&amp;AF313&amp;",0x"&amp;AE314&amp;",0x"&amp;AF314&amp;",0x"&amp;AE315&amp;",0x"&amp;AF315</f>
+        <v>0x00,0x00,0xE4,0x38,0x16,0x45,0x14,0x41,0xE4,0x31,0x04,0x09,0xE4,0x7C,0x00,0x00</v>
+      </c>
+    </row>
+    <row r="302" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J302" s="5"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="10">
+        <v>1</v>
+      </c>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+      <c r="Q302" s="10">
+        <v>1</v>
+      </c>
+      <c r="R302" s="1"/>
+      <c r="S302" s="1"/>
+      <c r="T302" s="10">
+        <v>1</v>
+      </c>
+      <c r="U302" s="1"/>
+      <c r="V302" s="10">
+        <v>1</v>
+      </c>
+      <c r="W302" s="1"/>
+      <c r="X302" s="1"/>
+      <c r="Y302" s="6"/>
+      <c r="AE302" t="str">
+        <f t="shared" si="32"/>
+        <v>88</v>
+      </c>
+      <c r="AF302" t="str">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J303" s="5"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="10">
+        <v>1</v>
+      </c>
+      <c r="R303" s="1"/>
+      <c r="S303" s="10">
+        <v>1</v>
+      </c>
+      <c r="T303" s="1"/>
+      <c r="U303" s="1"/>
+      <c r="V303" s="10">
+        <v>1</v>
+      </c>
+      <c r="W303" s="1"/>
+      <c r="X303" s="1"/>
+      <c r="Y303" s="6"/>
+      <c r="AE303" t="str">
+        <f t="shared" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="AF303" t="str">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J304" s="5"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="10">
+        <v>1</v>
+      </c>
+      <c r="P304" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="1"/>
+      <c r="R304" s="1"/>
+      <c r="S304" s="10">
+        <v>1</v>
+      </c>
+      <c r="T304" s="1"/>
+      <c r="U304" s="1"/>
+      <c r="V304" s="10">
+        <v>1</v>
+      </c>
+      <c r="W304" s="1"/>
+      <c r="X304" s="1"/>
+      <c r="Y304" s="6"/>
+      <c r="AE304" t="str">
+        <f t="shared" si="32"/>
+        <v>60</v>
+      </c>
+      <c r="AF304" t="str">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J305" s="5"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="10">
+        <v>1</v>
+      </c>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="S305" s="10">
+        <v>1</v>
+      </c>
+      <c r="T305" s="10">
+        <v>1</v>
+      </c>
+      <c r="U305" s="10">
+        <v>1</v>
+      </c>
+      <c r="V305" s="10">
+        <v>1</v>
+      </c>
+      <c r="W305" s="10">
+        <v>1</v>
+      </c>
+      <c r="X305" s="1"/>
+      <c r="Y305" s="6"/>
+      <c r="AE305" t="str">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="AF305" t="str">
+        <f t="shared" si="33"/>
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="306" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J306" s="5"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="10">
+        <v>1</v>
+      </c>
+      <c r="N306" s="10">
+        <v>1</v>
+      </c>
+      <c r="O306" s="10">
+        <v>1</v>
+      </c>
+      <c r="P306" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q306" s="10">
+        <v>1</v>
+      </c>
+      <c r="R306" s="1"/>
+      <c r="S306" s="1"/>
+      <c r="T306" s="1"/>
+      <c r="U306" s="1"/>
+      <c r="V306" s="10">
+        <v>1</v>
+      </c>
+      <c r="W306" s="1"/>
+      <c r="X306" s="1"/>
+      <c r="Y306" s="6"/>
+      <c r="AE306" t="str">
+        <f t="shared" si="32"/>
+        <v>F8</v>
+      </c>
+      <c r="AF306" t="str">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J307" s="5"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="P307" s="1"/>
+      <c r="Q307" s="1"/>
+      <c r="R307" s="1"/>
+      <c r="S307" s="1"/>
+      <c r="T307" s="1"/>
+      <c r="U307" s="1"/>
+      <c r="V307" s="1"/>
+      <c r="W307" s="1"/>
+      <c r="X307" s="1"/>
+      <c r="Y307" s="6"/>
+      <c r="AE307" t="str">
+        <f t="shared" si="32"/>
+        <v>00</v>
+      </c>
+      <c r="AF307" t="str">
+        <f t="shared" si="33"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="308" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J308" s="5"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+      <c r="P308" s="1"/>
+      <c r="Q308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="S308" s="1"/>
+      <c r="T308" s="1"/>
+      <c r="U308" s="1"/>
+      <c r="V308" s="1"/>
+      <c r="W308" s="1"/>
+      <c r="X308" s="1"/>
+      <c r="Y308" s="6"/>
+      <c r="AE308" t="str">
+        <f t="shared" si="32"/>
+        <v>00</v>
+      </c>
+      <c r="AF308" t="str">
+        <f t="shared" si="33"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="309" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J309" s="5"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="10">
+        <v>1</v>
+      </c>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="10">
+        <v>1</v>
+      </c>
+      <c r="P309" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q309" s="10">
+        <v>1</v>
+      </c>
+      <c r="R309" s="1"/>
+      <c r="S309" s="1"/>
+      <c r="T309" s="1"/>
+      <c r="U309" s="10">
+        <v>1</v>
+      </c>
+      <c r="V309" s="10">
+        <v>1</v>
+      </c>
+      <c r="W309" s="10">
+        <v>1</v>
+      </c>
+      <c r="X309" s="1"/>
+      <c r="Y309" s="6"/>
+      <c r="AE309" t="str">
+        <f t="shared" si="32"/>
+        <v>E4</v>
+      </c>
+      <c r="AF309" t="str">
+        <f t="shared" si="33"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="310" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J310" s="5"/>
+      <c r="K310" s="10">
+        <v>1</v>
+      </c>
+      <c r="L310" s="10">
+        <v>1</v>
+      </c>
+      <c r="M310" s="1"/>
+      <c r="N310" s="10">
+        <v>1</v>
+      </c>
+      <c r="O310" s="1"/>
+      <c r="P310" s="1"/>
+      <c r="Q310" s="1"/>
+      <c r="R310" s="10">
+        <v>1</v>
+      </c>
+      <c r="S310" s="1"/>
+      <c r="T310" s="10">
+        <v>1</v>
+      </c>
+      <c r="U310" s="1"/>
+      <c r="V310" s="1"/>
+      <c r="W310" s="1"/>
+      <c r="X310" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y310" s="6"/>
+      <c r="AE310" t="str">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="AF310" t="str">
+        <f t="shared" si="33"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="311" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J311" s="5"/>
+      <c r="K311" s="1"/>
+      <c r="L311" s="10">
+        <v>1</v>
+      </c>
+      <c r="M311" s="1"/>
+      <c r="N311" s="10">
+        <v>1</v>
+      </c>
+      <c r="O311" s="1"/>
+      <c r="P311" s="1"/>
+      <c r="Q311" s="1"/>
+      <c r="R311" s="10">
+        <v>1</v>
+      </c>
+      <c r="S311" s="1"/>
+      <c r="T311" s="1"/>
+      <c r="U311" s="1"/>
+      <c r="V311" s="1"/>
+      <c r="W311" s="1"/>
+      <c r="X311" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y311" s="6"/>
+      <c r="AE311" t="str">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="AF311" t="str">
+        <f t="shared" si="33"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J312" s="5"/>
+      <c r="K312" s="1"/>
+      <c r="L312" s="10">
+        <v>1</v>
+      </c>
+      <c r="M312" s="1"/>
+      <c r="N312" s="1"/>
+      <c r="O312" s="10">
+        <v>1</v>
+      </c>
+      <c r="P312" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q312" s="10">
+        <v>1</v>
+      </c>
+      <c r="R312" s="10">
+        <v>1</v>
+      </c>
+      <c r="S312" s="1"/>
+      <c r="T312" s="1"/>
+      <c r="U312" s="1"/>
+      <c r="V312" s="10">
+        <v>1</v>
+      </c>
+      <c r="W312" s="10">
+        <v>1</v>
+      </c>
+      <c r="X312" s="1"/>
+      <c r="Y312" s="6"/>
+      <c r="AE312" t="str">
+        <f t="shared" si="32"/>
+        <v>E4</v>
+      </c>
+      <c r="AF312" t="str">
+        <f t="shared" si="33"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="313" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J313" s="5"/>
+      <c r="K313" s="1"/>
+      <c r="L313" s="10">
+        <v>1</v>
+      </c>
+      <c r="M313" s="1"/>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="1"/>
+      <c r="Q313" s="1"/>
+      <c r="R313" s="10">
+        <v>1</v>
+      </c>
+      <c r="S313" s="1"/>
+      <c r="T313" s="1"/>
+      <c r="U313" s="10">
+        <v>1</v>
+      </c>
+      <c r="V313" s="1"/>
+      <c r="W313" s="1"/>
+      <c r="X313" s="1"/>
+      <c r="Y313" s="6"/>
+      <c r="AE313" t="str">
+        <f t="shared" si="32"/>
+        <v>04</v>
+      </c>
+      <c r="AF313" t="str">
+        <f t="shared" si="33"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="314" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J314" s="5"/>
+      <c r="K314" s="1"/>
+      <c r="L314" s="10">
+        <v>1</v>
+      </c>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="10">
+        <v>1</v>
+      </c>
+      <c r="P314" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q314" s="10">
+        <v>1</v>
+      </c>
+      <c r="R314" s="1"/>
+      <c r="S314" s="1"/>
+      <c r="T314" s="10">
+        <v>1</v>
+      </c>
+      <c r="U314" s="10">
+        <v>1</v>
+      </c>
+      <c r="V314" s="10">
+        <v>1</v>
+      </c>
+      <c r="W314" s="10">
+        <v>1</v>
+      </c>
+      <c r="X314" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y314" s="6"/>
+      <c r="AE314" t="str">
+        <f t="shared" si="32"/>
+        <v>E4</v>
+      </c>
+      <c r="AF314" t="str">
+        <f t="shared" si="33"/>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="315" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J315" s="7"/>
+      <c r="K315" s="8"/>
+      <c r="L315" s="8"/>
+      <c r="M315" s="8"/>
+      <c r="N315" s="8"/>
+      <c r="O315" s="8"/>
+      <c r="P315" s="8"/>
+      <c r="Q315" s="8"/>
+      <c r="R315" s="8"/>
+      <c r="S315" s="8"/>
+      <c r="T315" s="8"/>
+      <c r="U315" s="8"/>
+      <c r="V315" s="8"/>
+      <c r="W315" s="8"/>
+      <c r="X315" s="8"/>
+      <c r="Y315" s="9"/>
+      <c r="AE315" t="str">
+        <f t="shared" si="32"/>
+        <v>00</v>
+      </c>
+      <c r="AF315" t="str">
+        <f t="shared" si="33"/>
+        <v>00</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6550,7 +9816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135F94CE-4F90-4E2C-9BA7-A72E307E0FDF}">
   <dimension ref="J10:CS208"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="J65" sqref="J65:Y80"/>
     </sheetView>
   </sheetViews>
